--- a/server/src/uploads/excels/947682/excel.xlsx
+++ b/server/src/uploads/excels/947682/excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ToeicData\test\Exam Data\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Project\toeic_prep\server\src\uploads\excels\651941\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EE56FF-07D1-460C-9684-9381462E286A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3EA0BB5-BFEE-4790-B66B-7EBD31F449F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25974" yWindow="-163" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="1048">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="1066">
   <si>
     <t>number</t>
   </si>
@@ -71,9 +71,6 @@
     <t>num1</t>
   </si>
   <si>
-    <t>part1: Look at the picture and listen to the sentences. Choose the sentence that best describes the picture:</t>
-  </si>
-  <si>
     <t>She’s eating in a picnic area</t>
   </si>
   <si>
@@ -192,9 +189,6 @@
     <t>num7</t>
   </si>
   <si>
-    <t>part2</t>
-  </si>
-  <si>
     <t xml:space="preserve">How old is this building?
 </t>
   </si>
@@ -677,9 +671,6 @@
     <t>num32-33-34</t>
   </si>
   <si>
-    <t>part3</t>
-  </si>
-  <si>
     <t>What event does the woman mention?</t>
   </si>
   <si>
@@ -1280,9 +1271,6 @@
     <t>num71-72-73</t>
   </si>
   <si>
-    <t>part4</t>
-  </si>
-  <si>
     <t>Who has recorded the message?</t>
   </si>
   <si>
@@ -1754,9 +1742,6 @@
     <t>Sign up for a mailing list</t>
   </si>
   <si>
-    <t>part5</t>
-  </si>
-  <si>
     <t>Former Sendai Company CEO Ken Nakata spoke about -- career experiences.</t>
   </si>
   <si>
@@ -2207,9 +2192,6 @@
     <t xml:space="preserve"> potential</t>
   </si>
   <si>
-    <t>part6</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Children of all ages will enjoy the new exhibits.</t>
   </si>
   <si>
@@ -2402,9 +2384,6 @@
     <t xml:space="preserve"> had to receive</t>
   </si>
   <si>
-    <t>part7</t>
-  </si>
-  <si>
     <t>Where is the information most likely found?</t>
   </si>
   <si>
@@ -2828,9 +2807,6 @@
     <t xml:space="preserve"> On Friday</t>
   </si>
   <si>
-    <t>num26,num27</t>
-  </si>
-  <si>
     <t>What is the purpose of the press release?</t>
   </si>
   <si>
@@ -2906,9 +2882,6 @@
     <t>It has a location in Hong Kong</t>
   </si>
   <si>
-    <t>num28,num29</t>
-  </si>
-  <si>
     <t>What is the purpose of the e-mail?</t>
   </si>
   <si>
@@ -2984,9 +2957,6 @@
     <t>By plane</t>
   </si>
   <si>
-    <t>num30,num31,num32</t>
-  </si>
-  <si>
     <t>What is indicated about TTA?</t>
   </si>
   <si>
@@ -3062,9 +3032,6 @@
     <t>Section 4</t>
   </si>
   <si>
-    <t>num33,num34,num35</t>
-  </si>
-  <si>
     <t>What does the article mention about Orange Bay Kitchen?</t>
   </si>
   <si>
@@ -3140,9 +3107,6 @@
     <t>Ms. Smith</t>
   </si>
   <si>
-    <t>num36,num37,num38</t>
-  </si>
-  <si>
     <t>What does the invoice suggest about Green Canyon?</t>
   </si>
   <si>
@@ -3294,6 +3258,96 @@
   </si>
   <si>
     <t>transcript</t>
+  </si>
+  <si>
+    <t>num01</t>
+  </si>
+  <si>
+    <t>num07</t>
+  </si>
+  <si>
+    <t>num08</t>
+  </si>
+  <si>
+    <t>num09</t>
+  </si>
+  <si>
+    <t>num010</t>
+  </si>
+  <si>
+    <t>num011</t>
+  </si>
+  <si>
+    <t>num012</t>
+  </si>
+  <si>
+    <t>num013</t>
+  </si>
+  <si>
+    <t>num02</t>
+  </si>
+  <si>
+    <t>num03</t>
+  </si>
+  <si>
+    <t>num04</t>
+  </si>
+  <si>
+    <t>num05</t>
+  </si>
+  <si>
+    <t>num06</t>
+  </si>
+  <si>
+    <t>num014</t>
+  </si>
+  <si>
+    <t>num015</t>
+  </si>
+  <si>
+    <t>num016</t>
+  </si>
+  <si>
+    <t>num017</t>
+  </si>
+  <si>
+    <t>num018</t>
+  </si>
+  <si>
+    <t>num019</t>
+  </si>
+  <si>
+    <t>num020</t>
+  </si>
+  <si>
+    <t>num021</t>
+  </si>
+  <si>
+    <t>num022</t>
+  </si>
+  <si>
+    <t>num023</t>
+  </si>
+  <si>
+    <t>num024</t>
+  </si>
+  <si>
+    <t>num025</t>
+  </si>
+  <si>
+    <t>num026,num027</t>
+  </si>
+  <si>
+    <t>num028,num029</t>
+  </si>
+  <si>
+    <t>num030,num031,num032</t>
+  </si>
+  <si>
+    <t>num033,num034,num035</t>
+  </si>
+  <si>
+    <t>num036,num037,num038</t>
   </si>
 </sst>
 </file>
@@ -3303,7 +3357,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3350,6 +3404,12 @@
       <color rgb="FFAA9BF5"/>
       <name val="Consolas"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3933,8 +3993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D204" sqref="D204"/>
+    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D132" sqref="D132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.3"/>
@@ -3981,13 +4041,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>1022</v>
+        <v>1010</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>1023</v>
+        <v>1011</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>1047</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16.3">
@@ -3995,35 +4055,33 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>10</v>
+        <v>1036</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>11</v>
-      </c>
+      <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>16</v>
       </c>
       <c r="K2" s="15">
         <v>1</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>1024</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="65.25">
@@ -4031,33 +4089,33 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>17</v>
+        <v>1044</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="H3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="J3" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="K3" s="15">
         <v>1</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>1024</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16.3">
@@ -4065,33 +4123,33 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>23</v>
+        <v>1045</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="12"/>
       <c r="F4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>27</v>
-      </c>
       <c r="J4" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K4" s="15">
         <v>1</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>1026</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16.3">
@@ -4099,33 +4157,33 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>28</v>
+        <v>1046</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="12"/>
       <c r="F5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="H5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="I5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="J5" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="K5" s="15">
         <v>1</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>1025</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="16.3">
@@ -4133,33 +4191,33 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>34</v>
+        <v>1047</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="12"/>
       <c r="F6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="H6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="I6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="J6" s="11" t="s">
         <v>38</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>39</v>
       </c>
       <c r="K6" s="15">
         <v>1</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>1026</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="16.3">
@@ -4167,33 +4225,33 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>40</v>
+        <v>1048</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="12"/>
       <c r="F7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="H7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="I7" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="11" t="s">
-        <v>44</v>
-      </c>
       <c r="J7" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K7" s="15">
         <v>1</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>1026</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="48.9">
@@ -4202,32 +4260,30 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K8" s="15">
         <v>2</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>1027</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="65.25">
@@ -4236,30 +4292,30 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K9" s="15">
         <v>2</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>1027</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="65.25">
@@ -4268,30 +4324,30 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K10" s="15">
         <v>2</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>1027</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="81.55">
@@ -4300,30 +4356,30 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K11" s="15">
         <v>2</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>1027</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="65.25">
@@ -4332,30 +4388,30 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K12" s="15">
         <v>2</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="65.25">
@@ -4364,30 +4420,30 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K13" s="15">
         <v>2</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="65.25">
@@ -4396,30 +4452,30 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K14" s="15">
         <v>2</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="81.55">
@@ -4428,30 +4484,30 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K15" s="15">
         <v>2</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="65.25">
@@ -4460,30 +4516,30 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K16" s="15">
         <v>2</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="65.25">
@@ -4492,30 +4548,30 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K17" s="15">
         <v>2</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="65.25">
@@ -4524,30 +4580,30 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K18" s="15">
         <v>2</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="65.25">
@@ -4556,30 +4612,30 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K19" s="15">
         <v>2</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="65.25">
@@ -4588,30 +4644,30 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K20" s="15">
         <v>2</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="65.25">
@@ -4620,30 +4676,30 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K21" s="15">
         <v>2</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="65.25">
@@ -4652,30 +4708,30 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K22" s="15">
         <v>2</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="81.55">
@@ -4684,30 +4740,30 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K23" s="15">
         <v>2</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="65.25">
@@ -4716,30 +4772,30 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K24" s="15">
         <v>2</v>
       </c>
       <c r="L24" s="16" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="65.25">
@@ -4748,30 +4804,30 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K25" s="15">
         <v>2</v>
       </c>
       <c r="L25" s="16" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="65.25">
@@ -4780,30 +4836,30 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K26" s="15">
         <v>2</v>
       </c>
       <c r="L26" s="16" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="81.55">
@@ -4812,30 +4868,30 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K27" s="15">
         <v>2</v>
       </c>
       <c r="L27" s="16" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="65.25">
@@ -4844,30 +4900,30 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K28" s="15">
         <v>2</v>
       </c>
       <c r="L28" s="16" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="65.25">
@@ -4876,30 +4932,30 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K29" s="15">
         <v>2</v>
       </c>
       <c r="L29" s="16" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="81.55">
@@ -4908,30 +4964,30 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K30" s="15">
         <v>2</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="81.55">
@@ -4940,30 +4996,30 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K31" s="15">
         <v>2</v>
       </c>
       <c r="L31" s="16" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="65.25">
@@ -4972,30 +5028,30 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K32" s="15">
         <v>2</v>
       </c>
       <c r="L32" s="16" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="32.6">
@@ -5004,34 +5060,32 @@
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="G33" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="H33" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="I33" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>180</v>
-      </c>
       <c r="J33" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K33" s="15">
         <v>3</v>
       </c>
       <c r="L33" s="16" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="32.6">
@@ -5040,32 +5094,32 @@
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H34" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="I34" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="J34" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K34" s="15">
         <v>3</v>
       </c>
       <c r="L34" s="16" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="32.6">
@@ -5074,32 +5128,32 @@
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="H35" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="I35" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>190</v>
-      </c>
       <c r="J35" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K35" s="15">
         <v>3</v>
       </c>
       <c r="L35" s="16" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="32.6">
@@ -5108,32 +5162,32 @@
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H36" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="I36" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>196</v>
-      </c>
       <c r="J36" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K36" s="15">
         <v>3</v>
       </c>
       <c r="L36" s="16" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="32.6">
@@ -5142,32 +5196,32 @@
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H37" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="I37" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>201</v>
-      </c>
       <c r="J37" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K37" s="15">
         <v>3</v>
       </c>
       <c r="L37" s="16" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="32.6">
@@ -5176,32 +5230,32 @@
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="I38" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="G38" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>206</v>
-      </c>
       <c r="J38" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K38" s="15">
         <v>3</v>
       </c>
       <c r="L38" s="16" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="48.9">
@@ -5210,32 +5264,32 @@
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H39" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="I39" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="G39" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>212</v>
-      </c>
       <c r="J39" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K39" s="15">
         <v>3</v>
       </c>
       <c r="L39" s="16" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="32.6">
@@ -5244,32 +5298,32 @@
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="H40" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="I40" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>217</v>
-      </c>
       <c r="J40" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K40" s="15">
         <v>3</v>
       </c>
       <c r="L40" s="16" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="32.6">
@@ -5278,32 +5332,32 @@
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F41" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="I41" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>221</v>
-      </c>
       <c r="J41" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K41" s="15">
         <v>3</v>
       </c>
       <c r="L41" s="16" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="32.6">
@@ -5312,32 +5366,32 @@
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="I42" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="G42" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>227</v>
-      </c>
       <c r="J42" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K42" s="15">
         <v>3</v>
       </c>
       <c r="L42" s="16" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="48.9">
@@ -5346,32 +5400,32 @@
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H43" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="I43" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>232</v>
-      </c>
       <c r="J43" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K43" s="15">
         <v>3</v>
       </c>
       <c r="L43" s="16" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="32.6">
@@ -5380,32 +5434,32 @@
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="H44" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="I44" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>237</v>
-      </c>
       <c r="J44" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K44" s="15">
         <v>3</v>
       </c>
       <c r="L44" s="16" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="32.6">
@@ -5414,32 +5468,32 @@
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H45" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="I45" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="G45" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>243</v>
-      </c>
       <c r="J45" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K45" s="15">
         <v>3</v>
       </c>
       <c r="L45" s="16" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="32.6">
@@ -5448,32 +5502,32 @@
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="H46" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="I46" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="G46" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>248</v>
-      </c>
       <c r="J46" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K46" s="15">
         <v>3</v>
       </c>
       <c r="L46" s="16" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="32.6">
@@ -5482,32 +5536,32 @@
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="H47" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="I47" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="G47" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>253</v>
-      </c>
       <c r="J47" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K47" s="15">
         <v>3</v>
       </c>
       <c r="L47" s="16" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="32.6">
@@ -5516,32 +5570,32 @@
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="H48" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="F48" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>258</v>
-      </c>
       <c r="I48" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K48" s="15">
         <v>3</v>
       </c>
       <c r="L48" s="16" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="32.6">
@@ -5550,32 +5604,32 @@
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H49" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="I49" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="G49" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>263</v>
-      </c>
       <c r="J49" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K49" s="15">
         <v>3</v>
       </c>
       <c r="L49" s="16" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="32.6">
@@ -5584,32 +5638,32 @@
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F50" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="I50" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="G50" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>267</v>
-      </c>
       <c r="J50" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K50" s="15">
         <v>3</v>
       </c>
       <c r="L50" s="16" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="16.3">
@@ -5618,32 +5672,32 @@
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="H51" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="I51" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="G51" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>273</v>
-      </c>
       <c r="J51" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K51" s="15">
         <v>3</v>
       </c>
       <c r="L51" s="16" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="32.6">
@@ -5652,32 +5706,32 @@
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="H52" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="I52" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="G52" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>278</v>
-      </c>
       <c r="J52" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K52" s="15">
         <v>3</v>
       </c>
       <c r="L52" s="16" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="32.6">
@@ -5686,32 +5740,32 @@
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="H53" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="I53" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="G53" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>283</v>
-      </c>
       <c r="J53" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K53" s="15">
         <v>3</v>
       </c>
       <c r="L53" s="16" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="32.6">
@@ -5720,32 +5774,32 @@
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F54" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="I54" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="G54" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>288</v>
-      </c>
       <c r="J54" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K54" s="15">
         <v>3</v>
       </c>
       <c r="L54" s="16" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="32.6">
@@ -5754,32 +5808,32 @@
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="H55" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="I55" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="G55" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>293</v>
-      </c>
       <c r="J55" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K55" s="15">
         <v>3</v>
       </c>
       <c r="L55" s="16" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="32.6">
@@ -5788,32 +5842,32 @@
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="H56" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="I56" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="G56" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>298</v>
-      </c>
       <c r="J56" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K56" s="15">
         <v>3</v>
       </c>
       <c r="L56" s="16" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="32.6">
@@ -5822,32 +5876,32 @@
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="H57" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="I57" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="G57" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>304</v>
-      </c>
       <c r="J57" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K57" s="15">
         <v>3</v>
       </c>
       <c r="L57" s="16" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="32.6">
@@ -5856,32 +5910,32 @@
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="H58" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="I58" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="G58" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>309</v>
-      </c>
       <c r="J58" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K58" s="15">
         <v>3</v>
       </c>
       <c r="L58" s="15" t="s">
-        <v>1030</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="32.6">
@@ -5890,32 +5944,32 @@
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="H59" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="I59" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="G59" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>314</v>
-      </c>
       <c r="J59" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K59" s="15">
         <v>3</v>
       </c>
       <c r="L59" s="15" t="s">
-        <v>1030</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="32.6">
@@ -5924,32 +5978,32 @@
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="H60" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="I60" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="G60" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>320</v>
-      </c>
       <c r="J60" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K60" s="15">
         <v>3</v>
       </c>
       <c r="L60" s="15" t="s">
-        <v>1030</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="48.9">
@@ -5958,32 +6012,32 @@
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="H61" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="I61" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="G61" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>325</v>
-      </c>
       <c r="J61" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K61" s="15">
         <v>3</v>
       </c>
       <c r="L61" s="15" t="s">
-        <v>1030</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="32.6">
@@ -5992,32 +6046,32 @@
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="H62" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="I62" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="G62" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>330</v>
-      </c>
       <c r="J62" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K62" s="15">
         <v>3</v>
       </c>
       <c r="L62" s="15" t="s">
-        <v>1030</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="16.3">
@@ -6025,35 +6079,35 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>45</v>
+        <v>1037</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="H63" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="I63" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="G63" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>336</v>
-      </c>
       <c r="J63" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K63" s="15">
         <v>3</v>
       </c>
       <c r="L63" s="15" t="s">
-        <v>1030</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="48.9">
@@ -6062,11 +6116,11 @@
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F64" s="5">
         <v>21</v>
@@ -6081,13 +6135,13 @@
         <v>15</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K64" s="15">
         <v>3</v>
       </c>
       <c r="L64" s="15" t="s">
-        <v>1030</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="32.6">
@@ -6096,32 +6150,32 @@
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="H65" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="I65" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="G65" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>342</v>
-      </c>
       <c r="J65" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K65" s="15">
         <v>3</v>
       </c>
       <c r="L65" s="15" t="s">
-        <v>1030</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="32.6">
@@ -6129,35 +6183,35 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>52</v>
+        <v>1038</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="H66" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="I66" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="G66" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>348</v>
-      </c>
       <c r="J66" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K66" s="15">
         <v>3</v>
       </c>
       <c r="L66" s="16" t="s">
-        <v>1031</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="48.9">
@@ -6166,32 +6220,32 @@
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="H67" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="I67" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="G67" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>353</v>
-      </c>
       <c r="J67" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K67" s="15">
         <v>3</v>
       </c>
       <c r="L67" s="16" t="s">
-        <v>1031</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="32.6">
@@ -6200,32 +6254,32 @@
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="H68" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="I68" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="G68" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>358</v>
-      </c>
       <c r="J68" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K68" s="15">
         <v>3</v>
       </c>
       <c r="L68" s="16" t="s">
-        <v>1031</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="32.6">
@@ -6233,35 +6287,35 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>58</v>
+        <v>1039</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="H69" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="I69" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="G69" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>364</v>
-      </c>
       <c r="J69" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K69" s="15">
         <v>3</v>
       </c>
       <c r="L69" s="16" t="s">
-        <v>1031</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="48.9">
@@ -6270,32 +6324,32 @@
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="H70" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="I70" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="G70" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>369</v>
-      </c>
       <c r="J70" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K70" s="15">
         <v>3</v>
       </c>
       <c r="L70" s="16" t="s">
-        <v>1031</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="32.6">
@@ -6304,32 +6358,32 @@
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="H71" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="I71" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="G71" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="J71" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K71" s="15">
         <v>3</v>
       </c>
       <c r="L71" s="16" t="s">
-        <v>1031</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="32.6">
@@ -6338,34 +6392,32 @@
       </c>
       <c r="B72" s="13"/>
       <c r="C72" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="G72" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="D72" s="13" t="s">
+      <c r="H72" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="E72" s="13" t="s">
+      <c r="I72" s="13" t="s">
         <v>377</v>
       </c>
-      <c r="F72" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="G72" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="H72" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="I72" s="13" t="s">
-        <v>381</v>
-      </c>
       <c r="J72" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K72" s="15">
         <v>4</v>
       </c>
       <c r="L72" s="16" t="s">
-        <v>1032</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="32.6">
@@ -6374,32 +6426,32 @@
       </c>
       <c r="B73" s="13"/>
       <c r="C73" s="13" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="F73" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="G73" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="H73" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="I73" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="F73" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="G73" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="H73" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="I73" s="13" t="s">
-        <v>386</v>
-      </c>
       <c r="J73" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K73" s="15">
         <v>4</v>
       </c>
       <c r="L73" s="16" t="s">
-        <v>1032</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="32.6">
@@ -6408,32 +6460,32 @@
       </c>
       <c r="B74" s="13"/>
       <c r="C74" s="13" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="G74" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="H74" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="I74" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="F74" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="G74" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="H74" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="I74" s="13" t="s">
-        <v>391</v>
-      </c>
       <c r="J74" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K74" s="15">
         <v>4</v>
       </c>
       <c r="L74" s="16" t="s">
-        <v>1032</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="32.6">
@@ -6442,32 +6494,32 @@
       </c>
       <c r="B75" s="13"/>
       <c r="C75" s="13" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D75" s="13"/>
       <c r="E75" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="G75" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="H75" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="I75" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="F75" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="G75" s="13" t="s">
-        <v>395</v>
-      </c>
-      <c r="H75" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="I75" s="13" t="s">
-        <v>397</v>
-      </c>
       <c r="J75" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K75" s="15">
         <v>4</v>
       </c>
       <c r="L75" s="16" t="s">
-        <v>1032</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="48.9">
@@ -6476,32 +6528,32 @@
       </c>
       <c r="B76" s="13"/>
       <c r="C76" s="13" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="G76" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="H76" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="I76" s="13" t="s">
         <v>398</v>
       </c>
-      <c r="F76" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="G76" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="H76" s="13" t="s">
-        <v>401</v>
-      </c>
-      <c r="I76" s="13" t="s">
-        <v>402</v>
-      </c>
       <c r="J76" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K76" s="15">
         <v>4</v>
       </c>
       <c r="L76" s="16" t="s">
-        <v>1032</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="48.9">
@@ -6510,32 +6562,32 @@
       </c>
       <c r="B77" s="13"/>
       <c r="C77" s="13" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D77" s="13"/>
       <c r="E77" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="G77" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="H77" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="I77" s="13" t="s">
         <v>403</v>
       </c>
-      <c r="F77" s="13" t="s">
-        <v>404</v>
-      </c>
-      <c r="G77" s="13" t="s">
-        <v>405</v>
-      </c>
-      <c r="H77" s="13" t="s">
-        <v>406</v>
-      </c>
-      <c r="I77" s="13" t="s">
-        <v>407</v>
-      </c>
       <c r="J77" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K77" s="15">
         <v>4</v>
       </c>
       <c r="L77" s="16" t="s">
-        <v>1032</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="32.6">
@@ -6544,32 +6596,32 @@
       </c>
       <c r="B78" s="13"/>
       <c r="C78" s="13" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="H78" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="I78" s="13" t="s">
         <v>409</v>
       </c>
-      <c r="F78" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="G78" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="H78" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="I78" s="13" t="s">
-        <v>413</v>
-      </c>
       <c r="J78" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K78" s="15">
         <v>4</v>
       </c>
       <c r="L78" s="16" t="s">
-        <v>1032</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="32.6">
@@ -6578,32 +6630,32 @@
       </c>
       <c r="B79" s="13"/>
       <c r="C79" s="13" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D79" s="13"/>
       <c r="E79" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="H79" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="I79" s="13" t="s">
         <v>414</v>
       </c>
-      <c r="F79" s="13" t="s">
-        <v>415</v>
-      </c>
-      <c r="G79" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="H79" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="I79" s="13" t="s">
-        <v>418</v>
-      </c>
       <c r="J79" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K79" s="15">
         <v>4</v>
       </c>
       <c r="L79" s="16" t="s">
-        <v>1033</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="16.3">
@@ -6612,32 +6664,32 @@
       </c>
       <c r="B80" s="13"/>
       <c r="C80" s="13" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D80" s="13"/>
       <c r="E80" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="F80" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="G80" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="H80" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="I80" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="F80" s="13" t="s">
-        <v>420</v>
-      </c>
-      <c r="G80" s="13" t="s">
-        <v>421</v>
-      </c>
-      <c r="H80" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="I80" s="13" t="s">
-        <v>423</v>
-      </c>
       <c r="J80" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K80" s="15">
         <v>4</v>
       </c>
       <c r="L80" s="16" t="s">
-        <v>1033</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="16.3">
@@ -6646,32 +6698,32 @@
       </c>
       <c r="B81" s="13"/>
       <c r="C81" s="13" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="F81" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="G81" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="H81" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="I81" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="F81" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="G81" s="13" t="s">
-        <v>427</v>
-      </c>
-      <c r="H81" s="13" t="s">
-        <v>428</v>
-      </c>
-      <c r="I81" s="13" t="s">
-        <v>429</v>
-      </c>
       <c r="J81" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K81" s="15">
         <v>4</v>
       </c>
       <c r="L81" s="16" t="s">
-        <v>1033</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="32.6">
@@ -6680,32 +6732,32 @@
       </c>
       <c r="B82" s="13"/>
       <c r="C82" s="13" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D82" s="13"/>
       <c r="E82" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="F82" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="G82" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="H82" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="I82" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="F82" s="13" t="s">
-        <v>431</v>
-      </c>
-      <c r="G82" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="H82" s="13" t="s">
-        <v>433</v>
-      </c>
-      <c r="I82" s="13" t="s">
-        <v>434</v>
-      </c>
       <c r="J82" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K82" s="15">
         <v>4</v>
       </c>
       <c r="L82" s="16" t="s">
-        <v>1033</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="48.9">
@@ -6714,32 +6766,32 @@
       </c>
       <c r="B83" s="13"/>
       <c r="C83" s="13" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="F83" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="G83" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="H83" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="I83" s="13" t="s">
         <v>435</v>
       </c>
-      <c r="F83" s="13" t="s">
-        <v>436</v>
-      </c>
-      <c r="G83" s="13" t="s">
-        <v>437</v>
-      </c>
-      <c r="H83" s="13" t="s">
-        <v>438</v>
-      </c>
-      <c r="I83" s="13" t="s">
-        <v>439</v>
-      </c>
       <c r="J83" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K83" s="15">
         <v>4</v>
       </c>
       <c r="L83" s="16" t="s">
-        <v>1033</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="32.6">
@@ -6748,32 +6800,32 @@
       </c>
       <c r="B84" s="13"/>
       <c r="C84" s="13" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D84" s="13"/>
       <c r="E84" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="F84" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="G84" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="H84" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="I84" s="13" t="s">
         <v>441</v>
       </c>
-      <c r="F84" s="13" t="s">
-        <v>442</v>
-      </c>
-      <c r="G84" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="H84" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="I84" s="13" t="s">
-        <v>445</v>
-      </c>
       <c r="J84" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K84" s="15">
         <v>4</v>
       </c>
       <c r="L84" s="16" t="s">
-        <v>1033</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="48.9">
@@ -6782,32 +6834,32 @@
       </c>
       <c r="B85" s="13"/>
       <c r="C85" s="13" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D85" s="13"/>
       <c r="E85" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="F85" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="G85" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="H85" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="I85" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="F85" s="13" t="s">
-        <v>447</v>
-      </c>
-      <c r="G85" s="13" t="s">
-        <v>448</v>
-      </c>
-      <c r="H85" s="13" t="s">
-        <v>449</v>
-      </c>
-      <c r="I85" s="13" t="s">
-        <v>450</v>
-      </c>
       <c r="J85" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K85" s="15">
         <v>4</v>
       </c>
       <c r="L85" s="16" t="s">
-        <v>1033</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="32.6">
@@ -6816,32 +6868,32 @@
       </c>
       <c r="B86" s="13"/>
       <c r="C86" s="13" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D86" s="13"/>
       <c r="E86" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="G86" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="H86" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="I86" s="13" t="s">
         <v>451</v>
       </c>
-      <c r="F86" s="13" t="s">
-        <v>452</v>
-      </c>
-      <c r="G86" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="H86" s="13" t="s">
-        <v>454</v>
-      </c>
-      <c r="I86" s="13" t="s">
-        <v>455</v>
-      </c>
       <c r="J86" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K86" s="15">
         <v>4</v>
       </c>
       <c r="L86" s="16" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="32.6">
@@ -6850,32 +6902,32 @@
       </c>
       <c r="B87" s="13"/>
       <c r="C87" s="13" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D87" s="13"/>
       <c r="E87" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="F87" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="G87" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="H87" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="I87" s="13" t="s">
         <v>457</v>
       </c>
-      <c r="F87" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="G87" s="13" t="s">
-        <v>459</v>
-      </c>
-      <c r="H87" s="13" t="s">
-        <v>460</v>
-      </c>
-      <c r="I87" s="13" t="s">
-        <v>461</v>
-      </c>
       <c r="J87" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K87" s="15">
         <v>4</v>
       </c>
       <c r="L87" s="16" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="32.6">
@@ -6884,32 +6936,32 @@
       </c>
       <c r="B88" s="13"/>
       <c r="C88" s="13" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D88" s="13"/>
       <c r="E88" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="F88" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="G88" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="H88" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="I88" s="13" t="s">
         <v>462</v>
       </c>
-      <c r="F88" s="13" t="s">
-        <v>463</v>
-      </c>
-      <c r="G88" s="13" t="s">
-        <v>464</v>
-      </c>
-      <c r="H88" s="13" t="s">
-        <v>465</v>
-      </c>
-      <c r="I88" s="13" t="s">
-        <v>466</v>
-      </c>
       <c r="J88" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K88" s="15">
         <v>4</v>
       </c>
       <c r="L88" s="16" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="32.6">
@@ -6918,32 +6970,32 @@
       </c>
       <c r="B89" s="13"/>
       <c r="C89" s="13" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D89" s="13"/>
       <c r="E89" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="F89" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="G89" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="H89" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="I89" s="13" t="s">
         <v>467</v>
       </c>
-      <c r="F89" s="13" t="s">
-        <v>468</v>
-      </c>
-      <c r="G89" s="13" t="s">
-        <v>469</v>
-      </c>
-      <c r="H89" s="13" t="s">
-        <v>470</v>
-      </c>
-      <c r="I89" s="13" t="s">
-        <v>471</v>
-      </c>
       <c r="J89" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K89" s="15">
         <v>4</v>
       </c>
       <c r="L89" s="16" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="32.6">
@@ -6952,32 +7004,32 @@
       </c>
       <c r="B90" s="13"/>
       <c r="C90" s="13" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D90" s="13"/>
       <c r="E90" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="G90" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="H90" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="I90" s="13" t="s">
         <v>473</v>
       </c>
-      <c r="F90" s="13" t="s">
-        <v>474</v>
-      </c>
-      <c r="G90" s="13" t="s">
-        <v>475</v>
-      </c>
-      <c r="H90" s="13" t="s">
-        <v>476</v>
-      </c>
-      <c r="I90" s="13" t="s">
-        <v>477</v>
-      </c>
       <c r="J90" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K90" s="15">
         <v>4</v>
       </c>
       <c r="L90" s="16" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="48.9">
@@ -6986,32 +7038,32 @@
       </c>
       <c r="B91" s="13"/>
       <c r="C91" s="13" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D91" s="13"/>
       <c r="E91" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="F91" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="G91" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="H91" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="I91" s="13" t="s">
         <v>478</v>
       </c>
-      <c r="F91" s="13" t="s">
-        <v>479</v>
-      </c>
-      <c r="G91" s="13" t="s">
-        <v>480</v>
-      </c>
-      <c r="H91" s="13" t="s">
-        <v>481</v>
-      </c>
-      <c r="I91" s="13" t="s">
-        <v>482</v>
-      </c>
       <c r="J91" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K91" s="15">
         <v>4</v>
       </c>
       <c r="L91" s="16" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="32.6">
@@ -7020,32 +7072,32 @@
       </c>
       <c r="B92" s="13"/>
       <c r="C92" s="13" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D92" s="13"/>
       <c r="E92" s="13" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F92" s="13" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="I92" s="13" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="J92" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K92" s="15">
         <v>4</v>
       </c>
       <c r="L92" s="16" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="32.6">
@@ -7054,32 +7106,32 @@
       </c>
       <c r="B93" s="13"/>
       <c r="C93" s="13" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D93" s="13"/>
       <c r="E93" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="F93" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="G93" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="H93" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="I93" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="F93" s="13" t="s">
-        <v>489</v>
-      </c>
-      <c r="G93" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="H93" s="13" t="s">
-        <v>491</v>
-      </c>
-      <c r="I93" s="13" t="s">
-        <v>492</v>
-      </c>
       <c r="J93" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K93" s="15">
         <v>4</v>
       </c>
       <c r="L93" s="16" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="32.6">
@@ -7088,32 +7140,32 @@
       </c>
       <c r="B94" s="13"/>
       <c r="C94" s="13" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D94" s="13"/>
       <c r="E94" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="F94" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="G94" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="H94" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="I94" s="13" t="s">
         <v>493</v>
       </c>
-      <c r="F94" s="13" t="s">
-        <v>494</v>
-      </c>
-      <c r="G94" s="13" t="s">
-        <v>495</v>
-      </c>
-      <c r="H94" s="13" t="s">
-        <v>496</v>
-      </c>
-      <c r="I94" s="13" t="s">
-        <v>497</v>
-      </c>
       <c r="J94" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K94" s="15">
         <v>4</v>
       </c>
       <c r="L94" s="16" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="65.25">
@@ -7122,32 +7174,32 @@
       </c>
       <c r="B95" s="13"/>
       <c r="C95" s="13" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D95" s="13"/>
       <c r="E95" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="F95" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="G95" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="H95" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="I95" s="13" t="s">
         <v>498</v>
       </c>
-      <c r="F95" s="13" t="s">
-        <v>499</v>
-      </c>
-      <c r="G95" s="13" t="s">
-        <v>500</v>
-      </c>
-      <c r="H95" s="13" t="s">
-        <v>501</v>
-      </c>
-      <c r="I95" s="13" t="s">
-        <v>502</v>
-      </c>
       <c r="J95" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K95" s="15">
         <v>4</v>
       </c>
       <c r="L95" s="16" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="48.9">
@@ -7155,35 +7207,35 @@
         <v>95</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>63</v>
+        <v>1040</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D96" s="13"/>
       <c r="E96" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="F96" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="G96" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="H96" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="I96" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="F96" s="13" t="s">
-        <v>505</v>
-      </c>
-      <c r="G96" s="13" t="s">
-        <v>506</v>
-      </c>
-      <c r="H96" s="13" t="s">
-        <v>507</v>
-      </c>
-      <c r="I96" s="13" t="s">
-        <v>508</v>
-      </c>
       <c r="J96" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K96" s="15">
         <v>4</v>
       </c>
       <c r="L96" s="16" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="48.9">
@@ -7192,32 +7244,32 @@
       </c>
       <c r="B97" s="13"/>
       <c r="C97" s="13" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D97" s="13"/>
       <c r="E97" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="F97" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="G97" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="H97" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="I97" s="13" t="s">
         <v>509</v>
       </c>
-      <c r="F97" s="13" t="s">
-        <v>510</v>
-      </c>
-      <c r="G97" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="H97" s="13" t="s">
-        <v>512</v>
-      </c>
-      <c r="I97" s="13" t="s">
-        <v>513</v>
-      </c>
       <c r="J97" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K97" s="15">
         <v>4</v>
       </c>
       <c r="L97" s="16" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="32.6">
@@ -7226,32 +7278,32 @@
       </c>
       <c r="B98" s="13"/>
       <c r="C98" s="13" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D98" s="13"/>
       <c r="E98" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="F98" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="G98" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="H98" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="I98" s="13" t="s">
         <v>514</v>
       </c>
-      <c r="F98" s="13" t="s">
-        <v>515</v>
-      </c>
-      <c r="G98" s="13" t="s">
-        <v>516</v>
-      </c>
-      <c r="H98" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="I98" s="13" t="s">
-        <v>518</v>
-      </c>
       <c r="J98" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K98" s="15">
         <v>4</v>
       </c>
       <c r="L98" s="16" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="32.6">
@@ -7259,35 +7311,35 @@
         <v>98</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>69</v>
+        <v>1041</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D99" s="13"/>
       <c r="E99" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="F99" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="G99" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="H99" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="I99" s="13" t="s">
         <v>520</v>
       </c>
-      <c r="F99" s="13" t="s">
-        <v>521</v>
-      </c>
-      <c r="G99" s="13" t="s">
-        <v>522</v>
-      </c>
-      <c r="H99" s="13" t="s">
-        <v>523</v>
-      </c>
-      <c r="I99" s="13" t="s">
-        <v>524</v>
-      </c>
       <c r="J99" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K99" s="15">
         <v>4</v>
       </c>
       <c r="L99" s="16" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="48.9">
@@ -7296,32 +7348,32 @@
       </c>
       <c r="B100" s="13"/>
       <c r="C100" s="13" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D100" s="13"/>
       <c r="E100" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="F100" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="G100" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="H100" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="I100" s="13" t="s">
         <v>525</v>
       </c>
-      <c r="F100" s="13" t="s">
-        <v>526</v>
-      </c>
-      <c r="G100" s="13" t="s">
-        <v>527</v>
-      </c>
-      <c r="H100" s="13" t="s">
-        <v>528</v>
-      </c>
-      <c r="I100" s="13" t="s">
-        <v>529</v>
-      </c>
       <c r="J100" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K100" s="15">
         <v>4</v>
       </c>
       <c r="L100" s="16" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="48.9">
@@ -7330,32 +7382,32 @@
       </c>
       <c r="B101" s="13"/>
       <c r="C101" s="13" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D101" s="13"/>
       <c r="E101" s="13" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F101" s="13" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H101" s="13" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="I101" s="13" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="J101" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K101" s="15">
         <v>4</v>
       </c>
       <c r="L101" s="16" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="48.9">
@@ -7364,32 +7416,30 @@
       </c>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
-      <c r="D102" s="4" t="s">
+      <c r="D102" s="4"/>
+      <c r="E102" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="I102" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="E102" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="H102" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="I102" s="4" t="s">
-        <v>539</v>
-      </c>
       <c r="J102" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K102" s="15">
         <v>5</v>
       </c>
       <c r="L102" s="16" t="s">
-        <v>1035</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="48.9">
@@ -7400,28 +7450,28 @@
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K103" s="15">
         <v>5</v>
       </c>
       <c r="L103" s="16" t="s">
-        <v>1035</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="65.25">
@@ -7432,28 +7482,28 @@
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K104" s="15">
         <v>5</v>
       </c>
       <c r="L104" s="16" t="s">
-        <v>1035</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="48.9">
@@ -7464,28 +7514,28 @@
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K105" s="15">
         <v>5</v>
       </c>
       <c r="L105" s="16" t="s">
-        <v>1035</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="65.25">
@@ -7496,28 +7546,28 @@
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K106" s="15">
         <v>5</v>
       </c>
       <c r="L106" s="16" t="s">
-        <v>1035</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="48.9">
@@ -7528,28 +7578,28 @@
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K107" s="15">
         <v>5</v>
       </c>
       <c r="L107" s="16" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="65.25">
@@ -7560,28 +7610,28 @@
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K108" s="15">
         <v>5</v>
       </c>
       <c r="L108" s="16" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="48.9">
@@ -7592,28 +7642,28 @@
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K109" s="15">
         <v>5</v>
       </c>
       <c r="L109" s="16" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="65.25">
@@ -7624,28 +7674,28 @@
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K110" s="15">
         <v>5</v>
       </c>
       <c r="L110" s="16" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="48.9">
@@ -7656,28 +7706,28 @@
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="J111" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K111" s="15">
         <v>5</v>
       </c>
       <c r="L111" s="16" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="48.9">
@@ -7688,28 +7738,28 @@
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K112" s="15">
         <v>5</v>
       </c>
       <c r="L112" s="16" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="48.9">
@@ -7720,28 +7770,28 @@
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K113" s="15">
         <v>5</v>
       </c>
       <c r="L113" s="16" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="65.25">
@@ -7752,28 +7802,28 @@
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K114" s="15">
         <v>5</v>
       </c>
       <c r="L114" s="16" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="65.25">
@@ -7784,28 +7834,28 @@
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K115" s="15">
         <v>5</v>
       </c>
       <c r="L115" s="16" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="65.25">
@@ -7816,28 +7866,28 @@
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K116" s="15">
         <v>5</v>
       </c>
       <c r="L116" s="16" t="s">
-        <v>1037</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="81.55">
@@ -7848,28 +7898,28 @@
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K117" s="15">
         <v>5</v>
       </c>
       <c r="L117" s="16" t="s">
-        <v>1037</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="118" spans="1:12" ht="65.25">
@@ -7880,28 +7930,28 @@
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="J118" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K118" s="15">
         <v>5</v>
       </c>
       <c r="L118" s="16" t="s">
-        <v>1037</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="65.25">
@@ -7912,28 +7962,28 @@
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="I119" s="4" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K119" s="15">
         <v>5</v>
       </c>
       <c r="L119" s="16" t="s">
-        <v>1037</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="65.25">
@@ -7944,28 +7994,28 @@
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="I120" s="4" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="J120" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K120" s="15">
         <v>5</v>
       </c>
       <c r="L120" s="16" t="s">
-        <v>1037</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="65.25">
@@ -7976,28 +8026,28 @@
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="I121" s="4" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="J121" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K121" s="15">
         <v>5</v>
       </c>
       <c r="L121" s="16" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="65.25">
@@ -8008,28 +8058,28 @@
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="I122" s="4" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="J122" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K122" s="15">
         <v>5</v>
       </c>
       <c r="L122" s="16" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="81.55">
@@ -8040,28 +8090,28 @@
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="I123" s="4" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K123" s="15">
         <v>5</v>
       </c>
       <c r="L123" s="16" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="65.25">
@@ -8072,28 +8122,28 @@
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="I124" s="4" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="J124" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K124" s="15">
         <v>5</v>
       </c>
       <c r="L124" s="16" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="125" spans="1:12" ht="81.55">
@@ -8104,28 +8154,28 @@
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="I125" s="4" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="J125" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K125" s="15">
         <v>5</v>
       </c>
       <c r="L125" s="16" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="65.25">
@@ -8136,28 +8186,28 @@
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="I126" s="4" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="J126" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K126" s="15">
         <v>5</v>
       </c>
       <c r="L126" s="16" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="127" spans="1:12" ht="81.55">
@@ -8168,28 +8218,28 @@
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="I127" s="4" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K127" s="15">
         <v>5</v>
       </c>
       <c r="L127" s="16" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="48.9">
@@ -8200,28 +8250,28 @@
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="I128" s="4" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="J128" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K128" s="15">
         <v>5</v>
       </c>
       <c r="L128" s="16" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="65.25">
@@ -8232,28 +8282,28 @@
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="J129" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K129" s="15">
         <v>5</v>
       </c>
       <c r="L129" s="16" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="65.25">
@@ -8264,28 +8314,28 @@
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="I130" s="4" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="J130" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K130" s="15">
         <v>5</v>
       </c>
       <c r="L130" s="16" t="s">
-        <v>1039</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="65.25">
@@ -8296,28 +8346,28 @@
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="I131" s="4" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="J131" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K131" s="15">
         <v>5</v>
       </c>
       <c r="L131" s="16" t="s">
-        <v>1039</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="132" spans="1:12" ht="32.6">
@@ -8325,33 +8375,31 @@
         <v>131</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>74</v>
+        <v>1042</v>
       </c>
       <c r="C132" s="13"/>
-      <c r="D132" s="13" t="s">
-        <v>685</v>
-      </c>
+      <c r="D132" s="13"/>
       <c r="E132" s="13"/>
       <c r="F132" s="13" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="G132" s="13" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="H132" s="13" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="I132" s="13" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="J132" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K132" s="15">
         <v>6</v>
       </c>
       <c r="L132" s="16" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="133" spans="1:12" ht="16.3">
@@ -8363,25 +8411,25 @@
       <c r="D133" s="13"/>
       <c r="E133" s="13"/>
       <c r="F133" s="13" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="G133" s="13" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="H133" s="13" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="I133" s="13" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="J133" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K133" s="15">
         <v>6</v>
       </c>
       <c r="L133" s="16" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="16.3">
@@ -8393,25 +8441,25 @@
       <c r="D134" s="13"/>
       <c r="E134" s="13"/>
       <c r="F134" s="13" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G134" s="13" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="H134" s="13" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="I134" s="13" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="J134" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K134" s="15">
         <v>6</v>
       </c>
       <c r="L134" s="16" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="135" spans="1:12" ht="16.3">
@@ -8423,25 +8471,25 @@
       <c r="D135" s="13"/>
       <c r="E135" s="13"/>
       <c r="F135" s="13" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="G135" s="13" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="H135" s="13" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="I135" s="13" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="J135" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K135" s="15">
         <v>6</v>
       </c>
       <c r="L135" s="16" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="136" spans="1:12" ht="16.3">
@@ -8449,31 +8497,31 @@
         <v>135</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>79</v>
+        <v>1043</v>
       </c>
       <c r="C136" s="13"/>
       <c r="D136" s="13"/>
       <c r="E136" s="13"/>
       <c r="F136" s="13" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="G136" s="13" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="H136" s="13" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="I136" s="13" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="J136" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K136" s="15">
         <v>6</v>
       </c>
       <c r="L136" s="16" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="137" spans="1:12" ht="16.3">
@@ -8485,25 +8533,25 @@
       <c r="D137" s="13"/>
       <c r="E137" s="13"/>
       <c r="F137" s="13" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="G137" s="13" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="H137" s="13" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="I137" s="13" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="J137" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K137" s="15">
         <v>6</v>
       </c>
       <c r="L137" s="16" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="138" spans="1:12" ht="32.6">
@@ -8515,25 +8563,25 @@
       <c r="D138" s="13"/>
       <c r="E138" s="13"/>
       <c r="F138" s="13" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="G138" s="13" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="H138" s="13" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="I138" s="13" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="J138" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K138" s="15">
         <v>6</v>
       </c>
       <c r="L138" s="16" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="139" spans="1:12" ht="16.3">
@@ -8545,25 +8593,25 @@
       <c r="D139" s="13"/>
       <c r="E139" s="13"/>
       <c r="F139" s="13" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="G139" s="13" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="H139" s="13" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="I139" s="13" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="J139" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K139" s="15">
         <v>6</v>
       </c>
       <c r="L139" s="16" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="140" spans="1:12" ht="16.3">
@@ -8571,31 +8619,31 @@
         <v>139</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>84</v>
+        <v>1049</v>
       </c>
       <c r="C140" s="13"/>
       <c r="D140" s="13"/>
       <c r="E140" s="13"/>
       <c r="F140" s="13" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G140" s="13" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="H140" s="13" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="I140" s="13" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="J140" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K140" s="15">
         <v>6</v>
       </c>
       <c r="L140" s="16" t="s">
-        <v>1041</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="32.6">
@@ -8607,25 +8655,25 @@
       <c r="D141" s="13"/>
       <c r="E141" s="13"/>
       <c r="F141" s="13" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="G141" s="13" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="H141" s="13" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="I141" s="13" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="J141" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K141" s="15">
         <v>6</v>
       </c>
       <c r="L141" s="16" t="s">
-        <v>1041</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="142" spans="1:12" ht="16.3">
@@ -8637,25 +8685,25 @@
       <c r="D142" s="13"/>
       <c r="E142" s="13"/>
       <c r="F142" s="13" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="G142" s="13" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="H142" s="13" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="I142" s="13" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="J142" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K142" s="15">
         <v>6</v>
       </c>
       <c r="L142" s="16" t="s">
-        <v>1041</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="143" spans="1:12" ht="16.3">
@@ -8667,25 +8715,25 @@
       <c r="D143" s="13"/>
       <c r="E143" s="13"/>
       <c r="F143" s="13" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="G143" s="13" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="H143" s="13" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="I143" s="13" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="J143" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K143" s="15">
         <v>6</v>
       </c>
       <c r="L143" s="16" t="s">
-        <v>1041</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="144" spans="1:12" ht="32.6">
@@ -8693,31 +8741,31 @@
         <v>143</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>89</v>
+        <v>1050</v>
       </c>
       <c r="C144" s="13"/>
       <c r="D144" s="13"/>
       <c r="E144" s="13"/>
       <c r="F144" s="13" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="G144" s="13" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="H144" s="13" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="I144" s="13" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="J144" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K144" s="15">
         <v>6</v>
       </c>
       <c r="L144" s="16" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="145" spans="1:12" ht="16.3">
@@ -8729,25 +8777,25 @@
       <c r="D145" s="13"/>
       <c r="E145" s="13"/>
       <c r="F145" s="13" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="G145" s="13" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="H145" s="13" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="I145" s="13" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="J145" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K145" s="15">
         <v>6</v>
       </c>
       <c r="L145" s="16" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="146" spans="1:12" ht="16.3">
@@ -8759,25 +8807,25 @@
       <c r="D146" s="13"/>
       <c r="E146" s="13"/>
       <c r="F146" s="13" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="G146" s="13" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="H146" s="13" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="I146" s="13" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="J146" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K146" s="15">
         <v>6</v>
       </c>
       <c r="L146" s="16" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="147" spans="1:12" ht="16.3">
@@ -8789,25 +8837,25 @@
       <c r="D147" s="13"/>
       <c r="E147" s="13"/>
       <c r="F147" s="13" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="G147" s="13" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="H147" s="13" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="I147" s="13" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="J147" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K147" s="15">
         <v>6</v>
       </c>
       <c r="L147" s="16" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="148" spans="1:12" ht="32.6">
@@ -8815,35 +8863,33 @@
         <v>147</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>94</v>
+        <v>1051</v>
       </c>
       <c r="C148" s="4"/>
-      <c r="D148" s="4" t="s">
-        <v>750</v>
-      </c>
+      <c r="D148" s="4"/>
       <c r="E148" s="4" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="I148" s="4" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="J148" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K148" s="15">
         <v>7</v>
       </c>
       <c r="L148" s="16" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="149" spans="1:12" ht="32.6">
@@ -8854,28 +8900,28 @@
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="I149" s="4" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="J149" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K149" s="15">
         <v>7</v>
       </c>
       <c r="L149" s="16" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="150" spans="1:12" ht="32.6">
@@ -8883,33 +8929,33 @@
         <v>149</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>99</v>
+        <v>1052</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="I150" s="4" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="J150" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K150" s="15">
         <v>7</v>
       </c>
       <c r="L150" s="16" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="151" spans="1:12" ht="32.6">
@@ -8920,28 +8966,28 @@
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="I151" s="4" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="J151" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K151" s="15">
         <v>7</v>
       </c>
       <c r="L151" s="16" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="152" spans="1:12" ht="32.6">
@@ -8949,33 +8995,33 @@
         <v>151</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>104</v>
+        <v>1053</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="I152" s="4" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="J152" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K152" s="15">
         <v>7</v>
       </c>
       <c r="L152" s="16" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="153" spans="1:12" ht="32.6">
@@ -8986,28 +9032,28 @@
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="I153" s="4" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="J153" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K153" s="15">
         <v>7</v>
       </c>
       <c r="L153" s="16" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="154" spans="1:12" ht="65.25">
@@ -9015,33 +9061,33 @@
         <v>153</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>109</v>
+        <v>1054</v>
       </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="I154" s="4" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="J154" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K154" s="15">
         <v>7</v>
       </c>
       <c r="L154" s="16" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="155" spans="1:12" ht="32.6">
@@ -9052,28 +9098,28 @@
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="I155" s="4" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="J155" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K155" s="15">
         <v>7</v>
       </c>
       <c r="L155" s="16" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="156" spans="1:12" ht="32.6">
@@ -9081,33 +9127,33 @@
         <v>155</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>114</v>
+        <v>1055</v>
       </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="I156" s="4" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="J156" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K156" s="15">
         <v>7</v>
       </c>
       <c r="L156" s="16" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="157" spans="1:12" ht="32.6">
@@ -9118,28 +9164,28 @@
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="I157" s="4" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="J157" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K157" s="15">
         <v>7</v>
       </c>
       <c r="L157" s="16" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="158" spans="1:12" ht="32.6">
@@ -9150,28 +9196,28 @@
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="I158" s="4" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="J158" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K158" s="15">
         <v>7</v>
       </c>
       <c r="L158" s="16" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="159" spans="1:12" ht="32.6">
@@ -9179,33 +9225,33 @@
         <v>158</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>119</v>
+        <v>1056</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="I159" s="4" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="J159" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K159" s="15">
         <v>7</v>
       </c>
       <c r="L159" s="16" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="160" spans="1:12" ht="32.6">
@@ -9216,28 +9262,28 @@
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="I160" s="4" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="J160" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K160" s="15">
         <v>7</v>
       </c>
       <c r="L160" s="16" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="161" spans="1:12" ht="97.85">
@@ -9248,28 +9294,28 @@
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="I161" s="4" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="J161" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K161" s="15">
         <v>7</v>
       </c>
       <c r="L161" s="16" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="162" spans="1:12" ht="32.6">
@@ -9277,33 +9323,33 @@
         <v>161</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>124</v>
+        <v>1057</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="I162" s="4" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="J162" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K162" s="15">
         <v>7</v>
       </c>
       <c r="L162" s="16" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="163" spans="1:12" ht="32.6">
@@ -9314,28 +9360,28 @@
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="I163" s="4" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="J163" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K163" s="15">
         <v>7</v>
       </c>
       <c r="L163" s="16" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="164" spans="1:12" ht="32.6">
@@ -9346,28 +9392,28 @@
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="I164" s="4" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="J164" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K164" s="15">
         <v>7</v>
       </c>
       <c r="L164" s="16" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="165" spans="1:12" ht="48.9">
@@ -9378,28 +9424,28 @@
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="I165" s="4" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="J165" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K165" s="15">
         <v>7</v>
       </c>
       <c r="L165" s="16" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="48.9">
@@ -9407,33 +9453,33 @@
         <v>165</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>129</v>
+        <v>1058</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="I166" s="4" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="J166" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K166" s="15">
         <v>7</v>
       </c>
       <c r="L166" s="16" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="167" spans="1:12" ht="48.9">
@@ -9444,28 +9490,28 @@
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="I167" s="4" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="J167" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K167" s="15">
         <v>7</v>
       </c>
       <c r="L167" s="16" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="168" spans="1:12" ht="32.6">
@@ -9476,28 +9522,28 @@
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="I168" s="4" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="J168" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K168" s="15">
         <v>7</v>
       </c>
       <c r="L168" s="16" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="169" spans="1:12" ht="32.6">
@@ -9505,33 +9551,33 @@
         <v>168</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>134</v>
+        <v>1059</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="I169" s="4" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="J169" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K169" s="15">
         <v>7</v>
       </c>
       <c r="L169" s="16" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="170" spans="1:12" ht="48.9">
@@ -9542,28 +9588,28 @@
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="I170" s="4" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="J170" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K170" s="15">
         <v>7</v>
       </c>
       <c r="L170" s="16" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="171" spans="1:12" ht="32.6">
@@ -9574,28 +9620,28 @@
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="I171" s="4" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="J171" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K171" s="15">
         <v>7</v>
       </c>
       <c r="L171" s="16" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="172" spans="1:12" ht="97.85">
@@ -9606,28 +9652,28 @@
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="I172" s="4" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="J172" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K172" s="15">
         <v>7</v>
       </c>
       <c r="L172" s="16" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="173" spans="1:12" ht="32.6">
@@ -9635,33 +9681,33 @@
         <v>172</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>139</v>
+        <v>1060</v>
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="I173" s="4" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="J173" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K173" s="15">
         <v>7</v>
       </c>
       <c r="L173" s="16" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="174" spans="1:12" ht="65.25">
@@ -9672,28 +9718,28 @@
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="H174" s="4" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="I174" s="4" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="J174" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K174" s="15">
         <v>7</v>
       </c>
       <c r="L174" s="16" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="175" spans="1:12" ht="32.6">
@@ -9704,28 +9750,28 @@
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="H175" s="4" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="I175" s="4" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="J175" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K175" s="15">
         <v>7</v>
       </c>
       <c r="L175" s="16" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="176" spans="1:12" ht="48.9">
@@ -9736,28 +9782,28 @@
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="H176" s="4" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="I176" s="4" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="J176" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K176" s="15">
         <v>7</v>
       </c>
       <c r="L176" s="16" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="177" spans="1:12" ht="32.6">
@@ -9765,33 +9811,33 @@
         <v>176</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>892</v>
+        <v>1061</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="I177" s="4" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="J177" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K177" s="15">
         <v>7</v>
       </c>
       <c r="L177" s="16" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="178" spans="1:12" ht="65.25">
@@ -9802,28 +9848,28 @@
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="I178" s="4" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="J178" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K178" s="15">
         <v>7</v>
       </c>
       <c r="L178" s="16" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="179" spans="1:12" ht="32.6">
@@ -9834,28 +9880,28 @@
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="I179" s="4" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="J179" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K179" s="15">
         <v>7</v>
       </c>
       <c r="L179" s="16" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="180" spans="1:12" ht="32.6">
@@ -9866,28 +9912,28 @@
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="I180" s="4" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="J180" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K180" s="15">
         <v>7</v>
       </c>
       <c r="L180" s="16" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="181" spans="1:12" ht="48.9">
@@ -9898,28 +9944,28 @@
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="I181" s="4" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="J181" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K181" s="15">
         <v>7</v>
       </c>
       <c r="L181" s="16" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="182" spans="1:12" ht="32.6">
@@ -9927,33 +9973,33 @@
         <v>181</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>918</v>
+        <v>1062</v>
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="4" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
       <c r="I182" s="4" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
       <c r="J182" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K182" s="15">
         <v>7</v>
       </c>
       <c r="L182" s="16" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="183" spans="1:12" ht="32.6">
@@ -9964,28 +10010,28 @@
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="4" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
       <c r="I183" s="4" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
       <c r="J183" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K183" s="15">
         <v>7</v>
       </c>
       <c r="L183" s="16" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="184" spans="1:12" ht="32.6">
@@ -9996,28 +10042,28 @@
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
       <c r="I184" s="4" t="s">
-        <v>933</v>
+        <v>924</v>
       </c>
       <c r="J184" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K184" s="15">
         <v>7</v>
       </c>
       <c r="L184" s="16" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="185" spans="1:12" ht="32.6">
@@ -10028,28 +10074,28 @@
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
       <c r="I185" s="4" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
       <c r="J185" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K185" s="15">
         <v>7</v>
       </c>
       <c r="L185" s="16" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="186" spans="1:12" ht="32.6">
@@ -10060,28 +10106,28 @@
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="4" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="I186" s="4" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
       <c r="J186" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K186" s="15">
         <v>7</v>
       </c>
       <c r="L186" s="16" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="187" spans="1:12" ht="48.9">
@@ -10089,33 +10135,33 @@
         <v>186</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>944</v>
+        <v>1063</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4" t="s">
-        <v>945</v>
+        <v>935</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>947</v>
+        <v>937</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>948</v>
+        <v>938</v>
       </c>
       <c r="I187" s="4" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
       <c r="J187" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K187" s="15">
         <v>7</v>
       </c>
       <c r="L187" s="16" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="188" spans="1:12" ht="65.25">
@@ -10126,28 +10172,28 @@
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="4" t="s">
-        <v>950</v>
+        <v>940</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>952</v>
+        <v>942</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
       <c r="I188" s="4" t="s">
-        <v>954</v>
+        <v>944</v>
       </c>
       <c r="J188" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K188" s="15">
         <v>7</v>
       </c>
       <c r="L188" s="16" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="189" spans="1:12" ht="32.6">
@@ -10158,28 +10204,28 @@
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4" t="s">
-        <v>955</v>
+        <v>945</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>956</v>
+        <v>946</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>957</v>
+        <v>947</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>958</v>
+        <v>948</v>
       </c>
       <c r="I189" s="4" t="s">
-        <v>959</v>
+        <v>949</v>
       </c>
       <c r="J189" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K189" s="15">
         <v>7</v>
       </c>
       <c r="L189" s="16" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="190" spans="1:12" ht="32.6">
@@ -10190,28 +10236,28 @@
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="4" t="s">
-        <v>960</v>
+        <v>950</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>961</v>
+        <v>951</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>962</v>
+        <v>952</v>
       </c>
       <c r="H190" s="4" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="I190" s="4" t="s">
-        <v>964</v>
+        <v>954</v>
       </c>
       <c r="J190" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K190" s="15">
         <v>7</v>
       </c>
       <c r="L190" s="16" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="191" spans="1:12" ht="65.25">
@@ -10222,28 +10268,28 @@
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="4" t="s">
-        <v>965</v>
+        <v>955</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>966</v>
+        <v>956</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>967</v>
+        <v>957</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>968</v>
+        <v>958</v>
       </c>
       <c r="I191" s="4" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="J191" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K191" s="15">
         <v>7</v>
       </c>
       <c r="L191" s="16" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="192" spans="1:12" ht="48.9">
@@ -10251,33 +10297,33 @@
         <v>191</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>970</v>
+        <v>1064</v>
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="4" t="s">
-        <v>971</v>
+        <v>960</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>972</v>
+        <v>961</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>973</v>
+        <v>962</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>974</v>
+        <v>963</v>
       </c>
       <c r="I192" s="4" t="s">
-        <v>975</v>
+        <v>964</v>
       </c>
       <c r="J192" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K192" s="15">
         <v>7</v>
       </c>
       <c r="L192" s="16" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="193" spans="1:12" ht="65.25">
@@ -10288,28 +10334,28 @@
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="4" t="s">
-        <v>976</v>
+        <v>965</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>977</v>
+        <v>966</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>978</v>
+        <v>967</v>
       </c>
       <c r="H193" s="4" t="s">
-        <v>979</v>
+        <v>968</v>
       </c>
       <c r="I193" s="4" t="s">
-        <v>980</v>
+        <v>969</v>
       </c>
       <c r="J193" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K193" s="15">
         <v>7</v>
       </c>
       <c r="L193" s="16" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="194" spans="1:12" ht="48.9">
@@ -10320,28 +10366,28 @@
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="4" t="s">
-        <v>981</v>
+        <v>970</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>982</v>
+        <v>971</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>983</v>
+        <v>972</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>984</v>
+        <v>973</v>
       </c>
       <c r="I194" s="4" t="s">
-        <v>985</v>
+        <v>974</v>
       </c>
       <c r="J194" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K194" s="15">
         <v>7</v>
       </c>
       <c r="L194" s="16" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="195" spans="1:12" ht="32.6">
@@ -10352,28 +10398,28 @@
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="4" t="s">
-        <v>986</v>
+        <v>975</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>987</v>
+        <v>976</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>988</v>
+        <v>977</v>
       </c>
       <c r="H195" s="4" t="s">
-        <v>989</v>
+        <v>978</v>
       </c>
       <c r="I195" s="4" t="s">
-        <v>990</v>
+        <v>979</v>
       </c>
       <c r="J195" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K195" s="15">
         <v>7</v>
       </c>
       <c r="L195" s="16" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="196" spans="1:12" ht="48.9">
@@ -10384,28 +10430,28 @@
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="4" t="s">
-        <v>991</v>
+        <v>980</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>992</v>
+        <v>981</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>993</v>
+        <v>982</v>
       </c>
       <c r="H196" s="4" t="s">
-        <v>994</v>
+        <v>983</v>
       </c>
       <c r="I196" s="4" t="s">
-        <v>995</v>
+        <v>984</v>
       </c>
       <c r="J196" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K196" s="15">
         <v>7</v>
       </c>
       <c r="L196" s="16" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="197" spans="1:12" ht="48.9">
@@ -10413,33 +10459,33 @@
         <v>196</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>996</v>
+        <v>1065</v>
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4" t="s">
-        <v>997</v>
+        <v>985</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>998</v>
+        <v>986</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>999</v>
+        <v>987</v>
       </c>
       <c r="H197" s="4" t="s">
-        <v>1000</v>
+        <v>988</v>
       </c>
       <c r="I197" s="4" t="s">
-        <v>1001</v>
+        <v>989</v>
       </c>
       <c r="J197" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K197" s="15">
         <v>7</v>
       </c>
       <c r="L197" s="16" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="198" spans="1:12" ht="48.9">
@@ -10450,28 +10496,28 @@
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4" t="s">
-        <v>1002</v>
+        <v>990</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>1003</v>
+        <v>991</v>
       </c>
       <c r="G198" s="4" t="s">
-        <v>1004</v>
+        <v>992</v>
       </c>
       <c r="H198" s="4" t="s">
-        <v>1005</v>
+        <v>993</v>
       </c>
       <c r="I198" s="4" t="s">
-        <v>1006</v>
+        <v>994</v>
       </c>
       <c r="J198" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K198" s="15">
         <v>7</v>
       </c>
       <c r="L198" s="16" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="199" spans="1:12" ht="48.9">
@@ -10482,28 +10528,28 @@
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4" t="s">
-        <v>1007</v>
+        <v>995</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>1008</v>
+        <v>996</v>
       </c>
       <c r="G199" s="4" t="s">
-        <v>1009</v>
+        <v>997</v>
       </c>
       <c r="H199" s="4" t="s">
-        <v>1010</v>
+        <v>998</v>
       </c>
       <c r="I199" s="4" t="s">
-        <v>1011</v>
+        <v>999</v>
       </c>
       <c r="J199" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K199" s="15">
         <v>7</v>
       </c>
       <c r="L199" s="16" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="200" spans="1:12" ht="32.6">
@@ -10514,28 +10560,28 @@
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="4" t="s">
-        <v>1012</v>
+        <v>1000</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>1013</v>
+        <v>1001</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>1014</v>
+        <v>1002</v>
       </c>
       <c r="H200" s="4" t="s">
-        <v>1015</v>
+        <v>1003</v>
       </c>
       <c r="I200" s="4" t="s">
-        <v>1016</v>
+        <v>1004</v>
       </c>
       <c r="J200" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K200" s="15">
         <v>7</v>
       </c>
       <c r="L200" s="16" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="201" spans="1:12" ht="32.6">
@@ -10546,28 +10592,28 @@
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="4" t="s">
-        <v>1017</v>
+        <v>1005</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>1018</v>
+        <v>1006</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>1019</v>
+        <v>1007</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>1020</v>
+        <v>1008</v>
       </c>
       <c r="I201" s="4" t="s">
-        <v>1021</v>
+        <v>1009</v>
       </c>
       <c r="J201" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K201" s="15">
         <v>7</v>
       </c>
       <c r="L201" s="16" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="202" spans="1:12" ht="16.3">
@@ -10775,6 +10821,7 @@
       <c r="J218" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/server/src/uploads/excels/947682/excel.xlsx
+++ b/server/src/uploads/excels/947682/excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Project\toeic_prep\server\src\uploads\excels\651941\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\toeic_deploy\uploads\excels\651941\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3EA0BB5-BFEE-4790-B66B-7EBD31F449F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F151B64C-F58B-4B10-A659-C7C6BF03CBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25974" yWindow="-163" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="1066">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="1089">
   <si>
     <t>number</t>
   </si>
@@ -3348,6 +3348,238 @@
   </si>
   <si>
     <t>num036,num037,num038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W-Am (32)Thank you so much for organizing the annual company picnic, Jingdao. Everybody seemed to enjoy it.
+M-Au Well, we deserved it after working so hard this year.
+W-Am I agree. (33) The food was great, by the way. Especially the peach pie you made. Would you mind sharing the recipe? It was delicious.
+M-Au (34) I found the recipe online. I'll send you a link to the Web page. There’s a really helpful video that walks you through all the steps. I recommend you watch it first.
+W-Am All right, thanks.
+Dịch nghĩa:
+W-Am (32)Cảm ơn bạn rất nhiều vì đã tổ chức buổi dã ngoại hàng năm của công ty, Jingdao. Mọi người dường như thích nó.
+M-Au Chà, chúng ta xứng đáng được như vậy sau khi đã làm việc rất chăm chỉ trong năm nay.
+W-Am Tôi đồng ý. (33) Nhân tiện, đồ ăn rất ngon. Đặc biệt là món bánh đào bạn làm. Bạn có phiền chia sẻ công thức không? Nó rất là ngon.
+M-Au (34) Tôi tìm thấy công thức trên mạng. Tôi sẽ gửi cho bạn một liên kết đến trang Web. Có một video thực sự hữu ích hướng dẫn bạn qua tất cả các bước. Tôi khuyên bạn nên xem nó đầu tiên.
+W-Am Được rồi, cảm ơn.
+</t>
+  </si>
+  <si>
+    <t>M-Cn (35) I'd like to finish calculating the company’s expense reports for the month. Have you finished reviewing the travel reimbursement forms from all the departments?
+W-Br (35) I'm almost done, but I have a question about a hotel receipt from one of our employees.
+M-Cn What's the problem?
+W-Br Well, (36) our policy is for employees to stay at a hotel that's on our list of approved accommodations. This one isn't on the list.
+M-Cn Who submitted the receipt?
+W-Br Moritz Ziegler, one of our sales representatives.
+M-Cn Hmm. He's a new employee and may have forgotten the policy. (37) As a supervisor, I can approve the expense this one time.
+Dịch nghĩa:
+M-Cn (35) Tôi muốn hoàn thành việc tính toán báo cáo chi phí của công ty trong tháng. Bạn đã xem xét xong các biểu mẫu hoàn trả chi phí đi lại từ tất cả các bộ phận chưa?
+W-Br (35) Tôi gần như đã hoàn tất nhưng tôi có một câu hỏi về hóa đơn khách sạn từ một trong những nhân viên của chúng tôi.
+M-Cn Có vấn đề gì vậy?
+W-Br Vâng, (36) chính sách của chúng tôi là cho nhân viên nghỉ tại khách sạn nằm trong danh sách chỗ ở được phê duyệt của chúng tôi. Khách sạn này không có trong danh sách.
+M-Cn Ai đã nộp biên nhận?
+W-Br Moritz Ziegler, một trong những đại diện bán hàng của chúng tôi.
+M-Cn Hmm. Anh ấy là nhân viên mới và có thể đã quên chính sách này. (37) Với tư cách là người giám sát, tôi có thể phê duyệt chi phí lần này.</t>
+  </si>
+  <si>
+    <t>M-Au Good morning, Damilola. How's everything up here on deck?
+W-Br Hi, Pedro. It was an uneventful night, and (38) our cargo ship still hasn’t moved yet.
+M-Au Hmm, I hope the fog over the harbor lifts soon.
+W-Br Yeah, me too. (39)The ship won’t be able to leave until the weather improves.
+M-Au  I hope we won't get too far behind schedule. (40)I'll be sure to call the port authority soon for an update on when we'll be cleared to leave.
+W-Br Sounds good.
+Dịch nghĩa:
+M-Au Chào buổi sáng, Damilola. Mọi chuyện trên boong tàu thế nào rồi?
+W-Br Xin chào, Pedro. Đó là một đêm không yên, và (38) tàu chở hàng của chúng ta vẫn chưa di chuyển.
+M-Au Hmm, tôi hy vọng sương mù trên bến cảng sẽ sớm tan đi.
+W-Br Vâng, tôi cũng vậy. (39)Con tàu sẽ không thể rời bến cho đến khi thời tiết cải thiện.
+M-Au Tôi hy vọng chúng ta sẽ không bị chậm quá xa so với kế hoạch. (40)Tôi chắc chắn sẽ sớm gọi cho cơ quan quản lý cảng để cập nhật thông tin khi nào chúng ta được phép rời đi.
+W-Br Nghe ổn đấy.</t>
+  </si>
+  <si>
+    <t>W-Br Hi. (41)I’ve made a reservation to meet with some clients for lunch today. It’s under Cohen.
+M-Au Oh, yes. I see your reservation. Welcome, Ms. Cohen.
+W-Br (42)I know I asked to be seated on your beautiful terrace, but it’s very hot today.
+M-Au Hmm. (42)I can seat you at table four inside. Do you mind waiting a few minutes?
+W-Br Not at all. By the way, your parking area’s nearly full. Where can I tell my clients to park?
+M-Au (43)Our customers can park for free in the garage across the street. Our cashier will stamp their parking tickets.
+W-Br Oh, great. Thanks. I'll call them and let them know.
+Dịch nghĩa:
+W-Br: Chào bạn. (41)Tôi đã đặt chỗ để gặp một số khách hàng vào bữa trưa ngày hôm nay. Nó đứng tên Cohen.
+M-Au: Ồ, vâng. Tôi thấy sự đặt chỗ của bạn. Chào mừng cô Cohen.
+W-Br: (42)Tôi biết tôi đã yêu cầu được ngồi trên sân thượng xinh đẹp của bạn, nhưng hôm nay trời rất nóng.
+M-Au: Ừm. (42)Tôi có thể cho bạn ngồi ở bàn số 4 bên trong. Bạn có phiền chờ vài phút không?
+W-Br: Không hề. Nhân tiện, bãi đậu xe của bạn gần đầy rồi. Tôi có thể bảo khách hàng của mình đỗ xe ở đâu?
+M-Au: (43)Khách hàng của chúng tôi có thể đỗ xe miễn phí ở gara bên kia đường. Nhân viên thu ngân của chúng tôi sẽ đóng dấu vé đậu xe của họ.
+W-Br: Ồ, tuyệt vời. Cảm ơn. Tôi sẽ gọi cho họ và cho họ biết.</t>
+  </si>
+  <si>
+    <t>W-Am Thank you both for coming here today to demonstrate your company’s new compact printer. (41) I know the store will be busy because we're having a big sale on laptop computers and tablets.
+M-Cn We're happy to be here. Our printers are perfect for students or people with home offices who may have limited space. (45)My partner, Murat, will be setting up the printer station.
+M-Au (45) Yes—where can I put our demonstration table?
+W-Am I'll show you the area. Also, (46)if you brought any brochures with you, it’ll be helpful to put those out for people to take.
+Dịch nghĩa:
+W-Am Cảm ơn cả hai bạn đã đến đây hôm nay để giới thiệu chiếc máy in nhỏ gọn mới của công ty bạn. (41) Tôi biết cửa hàng sẽ đông khách vì chúng tôi đang có đợt giảm giá lớn cho máy tính xách tay và máy tính bảng.
+M-Cn Chúng tôi rất vui được ở đây. Máy in của chúng tôi hoàn hảo cho sinh viên hoặc những người có văn phòng tại nhà có không gian hạn chế. (45)Đồng nghiệp của tôi, Murat, sẽ lắp đặt trạm in.
+M-Au (45) Vâng—tôi có thể đặt bàn giới thiệu ở đâu?
+W-Am Tôi sẽ chỉ chỗ cho bạn. Ngoài ra, (46)nếu bạn mang theo bất kỳ tài liệu quảng cáo nào bên mình, sẽ rất hữu ích nếu bạn phát chúng ra cho mọi người lấy.</t>
+  </si>
+  <si>
+    <t>W-Am Gizem and Hector, (47)I’m very pleased with the sales of our brands of cakes, pies, and cookies this past holiday season. Any thoughts on what we should be concentrating on going forward?
+W-Br The biggest trend right now is the reduction of sugar. (48)The public wants healthier products, but the same great taste. That'll be our biggest challenge.
+M-Cn One of our ingredient suppliers recently started offering a sweetener made entirely from natural ingredients.
+W-Am Are there similar ones on the market? And how do they compare?
+M-Cn (49)I‘d have to do some investigation to find out more about that. I have some time available tomorrow afternoon.
+Dịch nghĩa:
+W-Am Gizem và Hector, (47)Tôi rất hài lòng với doanh số bán các nhãn hiệu bánh ngọt, bánh nướng và bánh quy của chúng ta trong mùa lễ vừa qua. Bạn có suy nghĩ gì về những gì chúng ta nên tập trung vào trong tương lai không?
+W-Br Xu hướng lớn nhất hiện nay là giảm lượng đường. (48)Công chúng muốn những sản phẩm tốt cho sức khỏe hơn nhưng vẫn có hương vị tuyệt vời. Đó sẽ là thách thức lớn nhất của chúng ta.
+M-Cn Một trong những nhà cung cấp nguyên liệu của chúng ta gần đây đã bắt đầu cung cấp chất làm ngọt được làm hoàn toàn từ nguyên liệu tự nhiên.
+W-Am Có loại tương tự trên thị trường không? Và họ so sánh như thế nào?
+M-Cn (49)Tôi phải thực hiện một số cuộc điều tra để tìm hiểu thêm về điều đó. Tôi có chút thời gian rảnh vào chiều mai.</t>
+  </si>
+  <si>
+    <t>M-Au Hi, Bianca. (50)I'm calling to see if you’d have time to work on a project for my marketing firm. We've expanded a lot in the past year, and we need some help.
+W-Am Thanks for thinking of me. What type of work would I be doing?
+M-Au Well, (51)we have a new client in Brazil who’s interested in creating a marketing campaign for social media sites. You'd be overseeing the campaign.
+W-Am Oh, I have experience with that. (52) Why don’t you send me a detailed description of the work? That'll give me an idea of how much time this project will take.
+Dịch nghĩa:
+M-Au Chào Bianca. (50)Tôi gọi điện để hỏi xem bạn có thời gian làm việc cho một dự án cho công ty tiếp thị của tôi không. Chúng tôi đã mở rộng rất nhiều trong năm qua và chúng tôi cần sự giúp đỡ.
+W-Am Cảm ơn vì đã nghĩ đến tôi. Tôi sẽ làm loại công việc gì?
+M-Au Vâng, (51)chúng tôi có một khách hàng mới ở Brazil, người quan tâm đến việc tạo chiến dịch tiếp thị cho các trang truyền thông xã hội. Bạn sẽ giám sát chiến dịch.
+W-Am Ồ, tôi có kinh nghiệm về việc đó. (52) Tại sao bạn không gửi cho tôi bản mô tả chi tiết về công việc? Điều đó sẽ cho tôi biết dự án này sẽ mất bao nhiêu thời gian.</t>
+  </si>
+  <si>
+    <t>W-Br Hey, Koji? (53)We were about to pack van number five for the music festival when we noticed it’s got a flat tire.
+M-Au Oh. That's not good.
+W-Br We're supposed to get there by eleven to set up lunch for the performers. Is there another van we can take?
+M-Au Let me see what's available. (54)We’ve got a lot of catering jobs today. Ah, yes—we can use van number three. Do you need help loading?
+W-Br Yes, thanks. (55)The food’s already in coolers, but everything’s in the kitchen with the serving utensils and napkins. It all needs to be brought to the parking area.
+M-Au (55)All right; I can help with that.
+Dịch nghĩa:
+W-Br Này Koji? (53)Chúng tôi chuẩn bị xếp đồ lên chiếc xe tải số năm cho lễ hội âm nhạc thì nhận thấy nó bị xẹp lốp.
+M-Au Ồ. Điều đó không tốt.
+W-Br Chúng ta phải đến đó lúc 11 giờ để chuẩn bị bữa trưa cho những người biểu diễn. Có chiếc xe tải nào khác mà chúng ta có thể đi không?
+M-Au Để tôi xem có gì nào. (54)Hôm nay chúng tôi có rất nhiều công việc phục vụ ăn uống. À, vâng—chúng ta có thể sử dụng xe số ba. Bạn có cần trợ giúp chuyển đồ không?
+W-Br Vâng, cảm ơn. (55) Thức ăn đã có sẵn trong tủ lạnh, nhưng mọi thứ đều ở trong bếp với dụng cụ phục vụ và khăn ăn. Tất cả cần phải được đưa đến khu vực đậu xe.
+M-Au (55)Được rồi; Tôi có thể giúp với điều đó.</t>
+  </si>
+  <si>
+    <t>M-Cn Thanks for taking my call. As I mentioned in my e-mail, (56)I’m interested in working in your field. But I’m talking to some professionals first so I can find out more about it.
+W-Am Happy to help.
+M-Cn (57)So how did you get your start?
+W-Am Oh, my family always subscribed to three newspapers. So I always thought the news was important. (57) At my university, I joined the newspaper and eventually worked my way up to being an editor.
+M-Cn Wow. Is it true that people in the news business work very long hours? (58)So what's your schedule like?
+Dịch nghĩa:
+M-Cn Cảm ơn bạn đã nhận cuộc gọi của tôi. Như tôi đã đề cập trong e-mail của mình, (56)Tôi quan tâm đến việc làm việc trong lĩnh vực của bạn. Nhưng trước tiên tôi sẽ nói chuyện với một số chuyên gia để có thể tìm hiểu thêm về nó.
+W-Am Tôi rất vui được giúp đỡ.
+M-Cn (57)Vậy bạn đã bắt đầu như thế nào?
+W-Am Ồ, gia đình tôi luôn đặt mua dài hạn ba tờ báo. Vì thế tôi luôn nghĩ tin tức là quan trọng. (57) Ở trường đại học, tôi làm việc cho tờ báo và cuối cùng trở thành biên tập viên.
+M-Cn Wow. Có đúng là những người trong ngành kinh doanh tin tức làm việc rất nhiều giờ không? (58)Vậy lịch trình của bạn như thế nào?</t>
+  </si>
+  <si>
+    <t>M-Au Hi, Karen! (59) I just read the article on the company Web site about the proposed merger with QZ Corporation. (60) lt looks like we’re going ahead with it.
+W-Br (60) There would be a lot of advantages to merging operations, although they also talked about it last year.
+M-Au I remember that. But there were a lot of details to work out—like whether our offices would stay in Chicago. (61) Now it looks like we won't be relocating.
+W-Br Well, (61) I really don’t want to move, so that’s a relief.
+Dịch nghĩa:
+M-Au Chào Karen! (59) Tôi vừa đọc bài viết trên trang web của công ty về đề xuất sáp nhập với QZ Corporation. (60) Có vẻ như chúng ta đang tiếp tục với nó.
+W-Br (60) Sẽ có rất nhiều lợi thế khi sáp nhập hoạt động, mặc dù họ cũng đã nói về nó vào năm ngoái.
+M-Au Tôi nhớ rồi. Nhưng còn rất nhiều vấn đề cần phải giải quyết - chẳng hạn như liệu văn phòng của chúng ta có ở lại Chicago hay không. (61) Bây giờ có vẻ như chúng ta sẽ không chuyển địa điểm nữa.
+W-Br Vâng, (61) Tôi thực sự không muốn di chuyển, vì vậy đó là một sự yên tâm.</t>
+  </si>
+  <si>
+    <t>M-Au Thanks for calling Customized Concepts. How can I help you?
+W-Am (62) My company wants to give every employee a gift, something useful but not too big. Since we’re about to host our annual staff basketball tournament, I thought a water bottle might be good.
+M-Au We carry a few drink containers. If you’re at our Web site, you'll see them under the Lifestyle tab.
+W-Am Let me pull it up now... All right.
+M-Au (63) I recommend the metal bottle with the wide-mouthed lid. It’s easier to clean than the one with the straw.
+W-Am OK, thanks. And you could put our company logo on it, right?
+M-Au Yes. (64) You'll just need to send me the graphic file.
+W-Am (64) I can do that.
+Dịch nghĩa:
+M-Au Cảm ơn bạn đã gọi tới Customized Concepts. Tôi giúp bạn như thế nào?
+W-Am (62) Công ty của tôi muốn tặng mỗi nhân viên một món quà, một món quà hữu ích nhưng không quá lớn. Vì chúng tôi sắp tổ chức giải bóng rổ dành cho nhân viên hàng năm nên tôi nghĩ một chai nước có thể sẽ tốt.
+M-Au Chúng tôi mang theo vài hộp đựng đồ uống. Nếu bạn đang truy cập trang Web của chúng tôi, bạn sẽ thấy chúng trong tab Phong cách sống.
+W-Am Để tôi kéo nó lên bây giờ... Được rồi.
+M-Au (63) Tôi khuyên dùng chai kim loại có nắp miệng rộng. Nó dễ dàng làm sạch hơn so với loại có ống hút.
+W-Am Ổn, cảm ơn. Và bạn có thể đặt logo công ty chúng tôi lên đó, phải không?
+M-Au Vâng. (64) Bạn chỉ cần gửi cho tôi tệp đồ họa.
+W-Am (64) Tôi có thể làm được điều đó.</t>
+  </si>
+  <si>
+    <t>W-Br Yun, (65) I just finished recording the audio guide for the pencil drawings that'll be included in our modern art exhibit next week. The files’Il be loaded onto the audio devices tomorrow.
+M-Cn That's great. But, unfortunately, we have to make one change. (66)The drawing by Claudia Hoffman will no longer be in the exhibit. There was a scheduling mix-up, and it was promised to another museum starting next week.
+W-Br Oh, that’s too bad. That was one of my favorite pieces. Will you put anything in its place?
+M-Cn No. We'll just remove it.
+W-Br OK, (67)then I'll make that change to the audio-guide recording. I'll do that right away.
+Dịch nghĩa:
+W-Br Yun, (65) Tôi vừa hoàn thành việc ghi âm hướng dẫn âm thanh cho các bức vẽ bằng bút chì sẽ được đưa vào triển lãm nghệ thuật hiện đại của chúng ta vào tuần tới. Các tập tin sẽ được tải vào thiết bị âm thanh vào ngày mai.
+M-Cn Thật tuyệt vời. Nhưng thật không may, chúng ta phải thực hiện một thay đổi. (66)Bức vẽ của Claudia Hoffman sẽ không còn được trưng bày nữa. Đã có sự nhầm lẫn về lịch trình và nó đã được hứa sẽ chuyển đến một bảo tàng khác bắt đầu vào tuần tới.
+W-Br. Ồ, tệ quá. Đó là một trong những tác phẩm yêu thích của tôi. Bạn sẽ đặt bất cứ điều gì vào vị trí của nó?
+M-Cn Không. Chúng tôi sẽ loại bỏ nó.
+W-Br OK, (67)rồi tôi sẽ thực hiện thay đổi đó đối với bản ghi âm hướng dẫn. Tôi sẽ làm điều đó ngay lập tức.</t>
+  </si>
+  <si>
+    <t>M-Cn (68) I’m glad we were assigned to cover the press conference earlier today. I counted seven other major media networks there, in addition to ours.
+W-Am Well, the offshore wind industry is going to transform the way this region gets its power.
+M-Cn Agreed. Let’s compare our facts before we start writing.
+W-Am (69)So the largest cluster of wind turbines— off the coast of Winston—is already built. The other sites are at different stages of construction, though Lanchester is also close to being done.
+M-Cn Right. (70) And I think it’s crucial for us to focus on how many new jobs related to assembling and maintaining the turbines are opening up in the area as a result of this.
+Dịch nghĩa:
+M-Cn (68) Tôi rất vui vì chúng ta đã được phân công đưa tin về buổi họp báo sớm hôm nay. Tôi đếm được bảy mạng lưới truyền thông lớn khác ở đó, ngoài mạng lưới của chúng ta.
+W-Am Chà, ngành công nghiệp gió ngoài khơi sẽ thay đổi cách khu vực này có được năng lượng.
+M-Cn Đồng ý. Hãy so sánh sự thật của chúng ta trước khi bắt đầu viết.
+W-Am (69)Vậy là cụm tua-bin gió lớn nhất— ngoài khơi Winston—đã được xây dựng. Các địa điểm khác đang ở các giai đoạn xây dựng khác nhau, mặc dù Lanchester cũng sắp hoàn thành.
+M-Cn Đúng rồi. (70) Và tôi nghĩ điều quan trọng là chúng ta phải tập trung vào việc có bao nhiêu công việc mới liên quan đến lắp ráp và bảo trì tua-bin đang mở ra trong khu vực do điều này.</t>
+  </si>
+  <si>
+    <t>M-Au (71)You have reached the information line for the Cranbury Apartments management office. On Monday, April twelfth, maintenance work will begin to repave the entire parking area adjacent to our building’s main entrance. (72)All Cranbury residents should move their vehicles from their designated parking spots before eight a.m. on Monday. Any vehicle still in its spot after eight a.m. will be towed at the owner’s expense. (73)A map of alternate parking sites was mailed to residents last week and is also posted in the building lobby.
+Dịch nghĩa:
+M-Au (71)Bạn đã liên hệ được với đường dây thông tin của văn phòng quản lý Căn hộ Cranbury. Vào thứ Hai, ngày 12 tháng 4, công việc bảo trì sẽ bắt đầu để lát lại toàn bộ khu vực đậu xe cạnh lối vào chính của tòa nhà của chúng tôi. (72)Tất cả cư dân Cranbury nên di chuyển phương tiện của họ khỏi các điểm đậu xe được chỉ định trước 8 giờ sáng Thứ Hai. Bất kỳ phương tiện nào vẫn ở nguyên vị trí sau 8 giờ sáng sẽ bị kéo đi với chi phí do chủ xe chịu. (73)Bản đồ các địa điểm đỗ xe thay thế đã được gửi đến cư dân vào tuần trước và cũng được dán ở sảnh tòa nhà.</t>
+  </si>
+  <si>
+    <t>W-Am Welcome to Your House Works. (74)On today’s episode, we'll go over how you can maintain and make minor repairs to the roof of your home. (75)The first thing to do is to invest in a few special tools, like a trowel and crowbar. It's important to choose some that are high quality because you'll use them for many years. With your trowel and some roof cement, you can seal any cracks or chips. The crowbar will help you remove loose shingles that you can then replace. Now, (76) I highly recommend you take photos of your roof every year so that you can track its overall condition.
+Dịch nghĩa:
+W-Am Chào mừng đến với Việc nhà của bạn. (74)Trong tập hôm nay, chúng ta sẽ tìm hiểu cách bạn có thể bảo trì và sửa chữa nhỏ mái nhà của mình. (75) Điều đầu tiên cần làm là đầu tư vào một số công cụ đặc biệt, như cái bay và xà beng. Điều quan trọng là chọn một số loại có chất lượng cao vì bạn sẽ sử dụng chúng trong nhiều năm. Với bay và một ít xi măng trên mái nhà, bạn có thể bịt kín mọi vết nứt hoặc vết sứt mẻ. Xà beng sẽ giúp bạn loại bỏ các ván ốp lỏng lẻo mà sau đó bạn có thể thay thế. Bây giờ, (76) tôi thực sự khuyên bạn nên chụp ảnh mái nhà của mình hàng năm để có thể theo dõi tình trạng chung của nó.</t>
+  </si>
+  <si>
+    <t>W-Br (77)Thanks again for joining me on today’s tour of the beautiful Wallingford Conservatory. I hope you enjoyed seeing and learning about the many species of plants and flowers we care for here. As I mentioned at the beginning of the tour, (78)world-renowned botanist Samantha Hughes will be giving a lecture on the care of flowering orchid plants at two o’clock in the community Room. I recommend attending. (79) Samantha’s work has also been featured in a documentary film called Orchid Caretakers, which you can purchase through the conservatory’s online gift shop. I watched it recently and learned many new things about the orchid species we have right here at the conservatory.
+Dịch nghĩa:
+W-Br (77) Một lần nữa, xin cảm ơn vì đã cùng tôi tham gia chuyến tham quan Nhà kính trồng cây Wallingford xinh đẹp hôm nay. Tôi hy vọng bạn thích thú khi được ngắm nhìn và tìm hiểu về nhiều loài thực vật và hoa mà chúng tôi chăm sóc ở đây. Như tôi đã đề cập ở phần đầu của chuyến tham quan, (78)nhà thực vật học nổi tiếng thế giới Samantha Hughes sẽ giảng bài về cách chăm sóc cây lan ra hoa vào lúc hai giờ trong Phòng cộng đồng. Tôi khuyên bạn nên tham dự. (79) Tác phẩm của Samantha cũng đã được giới thiệu trong một bộ phim tài liệu có tên Người chăm sóc hoa lan, mà bạn có thể mua thông qua cửa hàng quà tặng trực tuyến của nhà kính. Gần đây tôi đã xem nó và học được nhiều điều mới về các loài lan mà chúng tôi có ngay tại nhà kính này.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M-Au (80)Before the benefit concert begins, I want to thank all of you for supporting the Hillcaster Community Center. As you know, (81)our facilities have been in need of some repairs for quite a while. So far, we've raised 5,000 dollars in ticket sales, but we haven’t quite reached our goal yet. (82)So during the concert, I want to encourage you to buy food and drinks from the concession stand. (81) Eighty percent of the proceeds will go to construction at the Hillcaster Community Center. Enjoy the music!
+Dịch nghĩa:
+M-Au (80)Trước khi buổi hòa nhạc từ thiện bắt đầu, tôi muốn cảm ơn tất cả các bạn đã ủng hộ Trung tâm Cộng đồng Hillcaster. Như bạn đã biết, (81)cơ sở vật chất của chúng tôi đã cần được sửa chữa trong một thời gian khá dài. Cho đến nay, chúng tôi đã huy động được 5.000 đô la tiền bán vé nhưng chúng tôi vẫn chưa đạt được mục tiêu. (82)Vì vậy, trong buổi hòa nhạc, tôi muốn khuyến khích các bạn mua đồ ăn và đồ uống từ quầy giảm giá. (81) Tám mươi phần trăm số tiền thu được sẽ được dùng để xây dựng Trung tâm Cộng đồng Hillcaster. Hãy thưởng thức âm nhạc!</t>
+  </si>
+  <si>
+    <t>M-Cn Thank you all for attending today’s workshop. Erina Kimura and I will be conducting the session, and (83)we'll be focusing on using time efficiently as a business owner. Planning and spending your time wisely is a key factor to business success. (84)During the presentation, I'll be referring to documents from the packet you were handed as you arrived. If you don’t have one yet, Erina’s at the back of the room. OK then, (85) to start off, we'll do an exercise to get to know one another better.
+Dịch nghĩa:
+M-Cn Cảm ơn tất cả các bạn đã tham dự hội thảo ngày hôm nay. Erina Kimura và tôi sẽ tiến hành buổi học này, và (83)chúng tôi sẽ tập trung vào việc sử dụng thời gian hiệu quả với tư cách là chủ doanh nghiệp. Lập kế hoạch và sử dụng thời gian một cách khôn ngoan là yếu tố then chốt dẫn đến thành công trong kinh doanh. (84)Trong khi trình bày, tôi sẽ đề cập đến các tài liệu từ gói tài liệu mà bạn được giao khi bạn đến. Nếu bạn chưa có thì Erina ở cuối phòng. Được rồi, (85) để bắt đầu, chúng ta sẽ làm một bài tập để hiểu nhau hơn.</t>
+  </si>
+  <si>
+    <t>W-Br (86)At this site, archaeologists have uncovered the remains of a fifth-century marketplace with colorful mosaic tiles on the walls. You'll notice how vibrant the colors are, even after all these centuries. (86)This is what the ruins are most famous for. You can still see intricate details in the artists’ pictures of scenes from daily life. Now, to protect the mosaics, a roof has been constructed over the area, and the lights are dim. And (87)I'm sorry, but taking photos is not allowed, as the flash would damage the tiles. (88)As we proceed, please hold on to the handrails on either side. They'll help you stay on the path and protect the ruins around us.
+Dịch nghĩa:
+W-Br (86)Tại địa điểm này, các nhà khảo cổ đã phát hiện ra tàn tích của một khu chợ thế kỷ thứ năm với những viên gạch khảm đầy màu sắc trên tường. Bạn sẽ nhận thấy màu sắc rực rỡ như thế nào, thậm chí sau nhiều thế kỷ. (86)Đây là điều khiến khu di tích nổi tiếng nhất. Bạn vẫn có thể thấy những chi tiết phức tạp trong những bức tranh về cảnh vật trong cuộc sống hàng ngày của các nghệ sĩ. Giờ đây, để bảo vệ những bức tranh khảm, một mái nhà đã được xây dựng trên khu vực này và ánh sáng mờ ảo. Và (87)Tôi xin lỗi, nhưng không được phép chụp ảnh vì đèn flash sẽ làm hỏng gạch. (88)Khi chúng ta tiếp tục, vui lòng bám vào tay vịn ở hai bên. Họ sẽ giúp bạn đi đúng hướng và bảo vệ những tàn tích xung quanh chúng ta.</t>
+  </si>
+  <si>
+    <t>M-Cn (89)As you all know, our agency’s just won an important contract with Parker Auto Parts Company. (89,90)We'll be developing two 30-second ads for local radio stations to be released next month and two additional 20-second ads for the following month. Now, (90)I know it’s a tight schedule, but this is a priority. The client has actually started trying to work on this internally, (91) there's a rough ad we can start editing. Let's work on that now.
+Dịch nghĩa:
+M-Cn (89)Như các bạn đã biết, công ty của chúng ta vừa giành được một hợp đồng quan trọng với Parker Auto Parts Company. (89,90)Chúng ta sẽ phát triển hai quảng cáo dài 30 giây cho các đài phát thanh địa phương sẽ phát hành vào tháng tới và thêm hai quảng cáo dài 20 giây cho tháng tiếp theo. Bây giờ, (90)tôi biết đó là một lịch trình bận rộn, nhưng đây là ưu tiên hàng đầu. Khách hàng thực sự đã bắt đầu cố gắng giải quyết vấn đề này trong nội bộ, (91) có một quảng cáo thô mà chúng ta có thể bắt đầu chỉnh sửa. Hãy bắt tay vào việc đó ngay bây giờ.</t>
+  </si>
+  <si>
+    <t>W-Am (92)Excuse me, nurses. Your attention please. (93)I've been receiving complaints about the free snacks in the hospital break rooms. Some people have mentioned that they don’t like the selection of snacks, and some have said that they don’t get to eat them at all because they're gone by the time the evening shift starts. (94)So I was thinking about putting some money into each of your staff spending accounts every month so that you can buy the snacks you want at the hospital cafeteria. That will require management approval, but I'll keep you posted.
+Dịch nghĩa:
+W-Am (92)Xin lỗi, các y tá. Xin vui lòng chú ý. (93)Tôi đã nhận được nhiều lời phàn nàn về đồ ăn nhẹ miễn phí trong phòng nghỉ của bệnh viện. Một số người đã đề cập rằng họ không thích lựa chọn đồ ăn nhẹ và một số người nói rằng họ không được ăn chúng vì chúng đã hết khi ca tối bắt đầu. (94)Vì vậy, tôi đang nghĩ đến việc gửi một số tiền vào tài khoản chi tiêu của mỗi nhân viên hàng tháng để bạn có thể mua đồ ăn nhẹ mà bạn muốn tại căng tin bệnh viện. Điều đó sẽ yêu cầu sự chấp thuận của ban quản lý, nhưng tôi sẽ cập nhật cho bạn.</t>
+  </si>
+  <si>
+    <t>M-Cn As mayor of Lakeville, (95)I’m pleased to welcome you to the celebration for our town’s newly renovated Lakeville Park. There are a lot of new areas to explore, so we’ve planned a short hike. We'll be walking around the pond and along the renovated walking trail. (96)We’ll end our walk on the hill on the north side of the park. There we'll be having some free snacks and ice cream. (97)For those of you taking photos, don’t forget to post them on the city’s Web site. We'd like to commemorate this special day.
+Dịch nghĩa:
+M-Cn Với tư cách là thị trưởng của Lakeville, (95)Tôi vui mừng chào đón bạn đến dự lễ kỷ niệm Công viên Lakeville mới được cải tạo của thị trấn chúng tôi. Có rất nhiều khu vực mới để khám phá, vì vậy chúng tôi đã lên kế hoạch đi bộ một đoạn ngắn. Chúng ta sẽ đi dạo quanh ao và dọc theo con đường đi bộ đã được cải tạo. (96)Chúng ta sẽ kết thúc chuyến đi bộ trên ngọn đồi ở phía bắc của công viên. Ở đó chúng ta sẽ được ăn đồ ăn nhẹ và kem miễn phí. (97)Các bạn chụp ảnh đừng quên đăng lên trang Web của thành phố nhé. Chúng tôi muốn kỷ niệm ngày đặc biệt này.</t>
+  </si>
+  <si>
+    <t>W-Br (98)Thanks, everyone, for attending today’s free public lecture, sponsored by the Springfield Farmers’ Association. So, we've received lots of requests for information on growing a vegetable garden. People want to know how to keep their garden healthy and get the vegetables they want. The first thing we recommend is regular soil testing. (99)Since this is September, all soil samples in the next six weeks should be taken from the same depth, as seen on this chart. Oh, and before you leave today, (100)please sign up for our mailing list to stay informed of future lectures.
+Dịch nghĩa:
+W-Br (98) Cảm ơn mọi người đã tham dự buổi diễn thuyết công cộng miễn phí ngày hôm nay, do Hiệp hội Nông dân Springfield tài trợ. Vì vậy, chúng tôi đã nhận được rất nhiều yêu cầu cung cấp thông tin về cách trồng vườn rau. Mọi người muốn biết cách giữ cho khu vườn của họ khỏe mạnh và có được những loại rau họ muốn. Điều đầu tiên chúng tôi khuyên bạn nên kiểm tra đất thường xuyên. (99)Vì đây là tháng 9 nên tất cả các mẫu đất trong sáu tuần tới phải được lấy từ cùng độ sâu, như được thấy trên biểu đồ này. Ồ, và trước khi bạn rời đi hôm nay, (100) vui lòng đăng ký danh sách gửi thư của chúng tôi để được thông báo về các bài giảng trong tương lai.</t>
   </si>
 </sst>
 </file>
@@ -3357,12 +3589,19 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3409,6 +3648,31 @@
       <sz val="8"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1A1A1A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1A1A1A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFAA9BF5"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3466,43 +3730,62 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3991,10 +4274,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M218"/>
+  <dimension ref="A1:N218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D132" sqref="D132"/>
+    <sheetView tabSelected="1" topLeftCell="C42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.3"/>
@@ -4005,7 +4288,7 @@
     <col min="6" max="6" width="40.125" customWidth="1"/>
     <col min="7" max="7" width="43.375" customWidth="1"/>
     <col min="8" max="8" width="47.125" customWidth="1"/>
-    <col min="9" max="9" width="38.875" customWidth="1"/>
+    <col min="9" max="9" width="15.875" customWidth="1"/>
     <col min="10" max="10" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4071,7 +4354,7 @@
       <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="24" t="s">
         <v>14</v>
       </c>
       <c r="J2" s="11" t="s">
@@ -4108,7 +4391,7 @@
       <c r="I3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="24" t="s">
         <v>21</v>
       </c>
       <c r="K3" s="15">
@@ -4276,7 +4559,7 @@
         <v>48</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="23" t="s">
         <v>49</v>
       </c>
       <c r="K8" s="15">
@@ -4308,7 +4591,7 @@
         <v>54</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="23" t="s">
         <v>55</v>
       </c>
       <c r="K9" s="15">
@@ -5054,7 +5337,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="32.6">
+    <row r="33" spans="1:13" ht="409.6">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -5087,15 +5370,16 @@
       <c r="L33" s="16" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="32.6">
+      <c r="M33" s="18" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="32.6">
       <c r="A34" s="4">
         <v>33</v>
       </c>
       <c r="B34" s="4"/>
-      <c r="C34" s="4" t="s">
-        <v>172</v>
-      </c>
+      <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
         <v>178</v>
@@ -5122,14 +5406,12 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="32.6">
+    <row r="35" spans="1:13" ht="32.6">
       <c r="A35" s="4">
         <v>34</v>
       </c>
       <c r="B35" s="4"/>
-      <c r="C35" s="4" t="s">
-        <v>172</v>
-      </c>
+      <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
         <v>183</v>
@@ -5156,7 +5438,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="32.6">
+    <row r="36" spans="1:13" ht="409.6">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -5189,15 +5471,16 @@
       <c r="L36" s="16" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="32.6">
+      <c r="M36" s="18" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="32.6">
       <c r="A37" s="4">
         <v>36</v>
       </c>
       <c r="B37" s="4"/>
-      <c r="C37" s="4" t="s">
-        <v>188</v>
-      </c>
+      <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
         <v>194</v>
@@ -5224,14 +5507,12 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="32.6">
+    <row r="38" spans="1:13" ht="32.6">
       <c r="A38" s="4">
         <v>37</v>
       </c>
       <c r="B38" s="4"/>
-      <c r="C38" s="4" t="s">
-        <v>188</v>
-      </c>
+      <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
         <v>199</v>
@@ -5258,7 +5539,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="48.9">
+    <row r="39" spans="1:13" ht="409.6">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -5291,15 +5572,16 @@
       <c r="L39" s="16" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="32.6">
+      <c r="M39" s="18" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="32.6">
       <c r="A40" s="4">
         <v>39</v>
       </c>
       <c r="B40" s="4"/>
-      <c r="C40" s="4" t="s">
-        <v>204</v>
-      </c>
+      <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
         <v>210</v>
@@ -5326,14 +5608,12 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="32.6">
+    <row r="41" spans="1:13" ht="32.6">
       <c r="A41" s="4">
         <v>40</v>
       </c>
       <c r="B41" s="4"/>
-      <c r="C41" s="4" t="s">
-        <v>204</v>
-      </c>
+      <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
         <v>199</v>
@@ -5360,7 +5640,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="32.6">
+    <row r="42" spans="1:13" ht="409.6">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -5393,15 +5673,16 @@
       <c r="L42" s="16" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="48.9">
+      <c r="M42" s="18" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="48.9">
       <c r="A43" s="4">
         <v>42</v>
       </c>
       <c r="B43" s="4"/>
-      <c r="C43" s="4" t="s">
-        <v>219</v>
-      </c>
+      <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
         <v>225</v>
@@ -5428,14 +5709,12 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="32.6">
+    <row r="44" spans="1:13" ht="32.6">
       <c r="A44" s="4">
         <v>43</v>
       </c>
       <c r="B44" s="4"/>
-      <c r="C44" s="4" t="s">
-        <v>219</v>
-      </c>
+      <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
         <v>230</v>
@@ -5462,7 +5741,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="32.6">
+    <row r="45" spans="1:13" ht="409.6">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -5495,15 +5774,16 @@
       <c r="L45" s="16" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="32.6">
+      <c r="M45" s="18" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="32.6">
       <c r="A46" s="4">
         <v>45</v>
       </c>
       <c r="B46" s="4"/>
-      <c r="C46" s="4" t="s">
-        <v>235</v>
-      </c>
+      <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
         <v>241</v>
@@ -5530,14 +5810,12 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="32.6">
+    <row r="47" spans="1:13" ht="32.6">
       <c r="A47" s="4">
         <v>46</v>
       </c>
       <c r="B47" s="4"/>
-      <c r="C47" s="4" t="s">
-        <v>235</v>
-      </c>
+      <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
         <v>246</v>
@@ -5564,7 +5842,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="32.6">
+    <row r="48" spans="1:13" ht="409.6">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -5597,15 +5875,16 @@
       <c r="L48" s="16" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="32.6">
+      <c r="M48" s="18" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="32.6">
       <c r="A49" s="4">
         <v>48</v>
       </c>
       <c r="B49" s="4"/>
-      <c r="C49" s="4" t="s">
-        <v>251</v>
-      </c>
+      <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
         <v>256</v>
@@ -5632,14 +5911,12 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="32.6">
+    <row r="50" spans="1:13" ht="32.6">
       <c r="A50" s="4">
         <v>49</v>
       </c>
       <c r="B50" s="4"/>
-      <c r="C50" s="4" t="s">
-        <v>251</v>
-      </c>
+      <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
         <v>199</v>
@@ -5666,7 +5943,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="16.3">
+    <row r="51" spans="1:13" ht="409.6">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -5699,15 +5976,16 @@
       <c r="L51" s="16" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="32.6">
+      <c r="M51" s="18" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="32.6">
       <c r="A52" s="4">
         <v>51</v>
       </c>
       <c r="B52" s="4"/>
-      <c r="C52" s="4" t="s">
-        <v>265</v>
-      </c>
+      <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4" t="s">
         <v>271</v>
@@ -5734,14 +6012,12 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="32.6">
+    <row r="53" spans="1:13" ht="32.6">
       <c r="A53" s="4">
         <v>52</v>
       </c>
       <c r="B53" s="4"/>
-      <c r="C53" s="4" t="s">
-        <v>265</v>
-      </c>
+      <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4" t="s">
         <v>276</v>
@@ -5768,7 +6044,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="32.6">
+    <row r="54" spans="1:13" ht="409.6">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -5801,15 +6077,16 @@
       <c r="L54" s="16" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="32.6">
+      <c r="M54" s="18" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="32.6">
       <c r="A55" s="4">
         <v>54</v>
       </c>
       <c r="B55" s="4"/>
-      <c r="C55" s="4" t="s">
-        <v>281</v>
-      </c>
+      <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
         <v>286</v>
@@ -5835,15 +6112,14 @@
       <c r="L55" s="16" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" ht="32.6">
+      <c r="M55" s="18"/>
+    </row>
+    <row r="56" spans="1:13" ht="32.6">
       <c r="A56" s="4">
         <v>55</v>
       </c>
       <c r="B56" s="4"/>
-      <c r="C56" s="4" t="s">
-        <v>281</v>
-      </c>
+      <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4" t="s">
         <v>291</v>
@@ -5870,7 +6146,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="32.6">
+    <row r="57" spans="1:13" ht="409.6">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -5903,15 +6179,16 @@
       <c r="L57" s="16" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" ht="32.6">
+      <c r="M57" s="18" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="32.6">
       <c r="A58" s="4">
         <v>57</v>
       </c>
       <c r="B58" s="4"/>
-      <c r="C58" s="4" t="s">
-        <v>296</v>
-      </c>
+      <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4" t="s">
         <v>302</v>
@@ -5938,14 +6215,12 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="32.6">
+    <row r="59" spans="1:13" ht="32.6">
       <c r="A59" s="4">
         <v>58</v>
       </c>
       <c r="B59" s="4"/>
-      <c r="C59" s="4" t="s">
-        <v>296</v>
-      </c>
+      <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4" t="s">
         <v>307</v>
@@ -5972,7 +6247,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="32.6">
+    <row r="60" spans="1:13" ht="409.6">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -6005,15 +6280,16 @@
       <c r="L60" s="15" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" ht="48.9">
+      <c r="M60" s="18" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="48.9">
       <c r="A61" s="4">
         <v>60</v>
       </c>
       <c r="B61" s="4"/>
-      <c r="C61" s="4" t="s">
-        <v>312</v>
-      </c>
+      <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
         <v>318</v>
@@ -6040,14 +6316,12 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="32.6">
+    <row r="62" spans="1:13" ht="32.6">
       <c r="A62" s="4">
         <v>61</v>
       </c>
       <c r="B62" s="4"/>
-      <c r="C62" s="4" t="s">
-        <v>312</v>
-      </c>
+      <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
         <v>323</v>
@@ -6073,8 +6347,9 @@
       <c r="L62" s="15" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" ht="16.3">
+      <c r="M62" s="18"/>
+    </row>
+    <row r="63" spans="1:13" ht="409.6">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -6109,15 +6384,16 @@
       <c r="L63" s="15" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" ht="48.9">
+      <c r="M63" s="18" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="48.9">
       <c r="A64" s="4">
         <v>63</v>
       </c>
       <c r="B64" s="4"/>
-      <c r="C64" s="4" t="s">
-        <v>328</v>
-      </c>
+      <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4" t="s">
         <v>334</v>
@@ -6144,14 +6420,12 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="32.6">
+    <row r="65" spans="1:14" ht="32.6">
       <c r="A65" s="4">
         <v>64</v>
       </c>
       <c r="B65" s="4"/>
-      <c r="C65" s="4" t="s">
-        <v>328</v>
-      </c>
+      <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4" t="s">
         <v>335</v>
@@ -6178,7 +6452,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="32.6">
+    <row r="66" spans="1:14" ht="409.6">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -6213,15 +6487,16 @@
       <c r="L66" s="16" t="s">
         <v>1019</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" ht="48.9">
+      <c r="M66" s="18" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="48.9">
       <c r="A67" s="4">
         <v>66</v>
       </c>
       <c r="B67" s="4"/>
-      <c r="C67" s="4" t="s">
-        <v>340</v>
-      </c>
+      <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4" t="s">
         <v>346</v>
@@ -6248,14 +6523,12 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="32.6">
+    <row r="68" spans="1:14" ht="32.6">
       <c r="A68" s="4">
         <v>67</v>
       </c>
       <c r="B68" s="4"/>
-      <c r="C68" s="4" t="s">
-        <v>340</v>
-      </c>
+      <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4" t="s">
         <v>351</v>
@@ -6282,7 +6555,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="32.6">
+    <row r="69" spans="1:14" ht="409.6">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -6317,15 +6590,16 @@
       <c r="L69" s="16" t="s">
         <v>1019</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" ht="48.9">
+      <c r="M69" s="18" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="48.9">
       <c r="A70" s="4">
         <v>69</v>
       </c>
       <c r="B70" s="4"/>
-      <c r="C70" s="4" t="s">
-        <v>356</v>
-      </c>
+      <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4" t="s">
         <v>362</v>
@@ -6352,14 +6626,12 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="32.6">
+    <row r="71" spans="1:14" ht="32.6">
       <c r="A71" s="4">
         <v>70</v>
       </c>
       <c r="B71" s="4"/>
-      <c r="C71" s="4" t="s">
-        <v>356</v>
-      </c>
+      <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4" t="s">
         <v>367</v>
@@ -6386,7 +6658,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="32.6">
+    <row r="72" spans="1:14" ht="409.6">
       <c r="A72" s="13">
         <v>71</v>
       </c>
@@ -6416,18 +6688,20 @@
       <c r="K72" s="15">
         <v>4</v>
       </c>
-      <c r="L72" s="16" t="s">
+      <c r="L72" s="21" t="s">
         <v>1020</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" ht="32.6">
+      <c r="M72" s="22" t="s">
+        <v>1079</v>
+      </c>
+      <c r="N72" s="19"/>
+    </row>
+    <row r="73" spans="1:14" ht="32.6">
       <c r="A73" s="13">
         <v>72</v>
       </c>
       <c r="B73" s="13"/>
-      <c r="C73" s="13" t="s">
-        <v>372</v>
-      </c>
+      <c r="C73" s="13"/>
       <c r="D73" s="13"/>
       <c r="E73" s="13" t="s">
         <v>378</v>
@@ -6454,14 +6728,12 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="32.6">
+    <row r="74" spans="1:14" ht="32.6">
       <c r="A74" s="13">
         <v>73</v>
       </c>
       <c r="B74" s="13"/>
-      <c r="C74" s="13" t="s">
-        <v>372</v>
-      </c>
+      <c r="C74" s="13"/>
       <c r="D74" s="13"/>
       <c r="E74" s="13" t="s">
         <v>383</v>
@@ -6487,8 +6759,9 @@
       <c r="L74" s="16" t="s">
         <v>1020</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" ht="32.6">
+      <c r="N74" s="20"/>
+    </row>
+    <row r="75" spans="1:14" ht="409.6">
       <c r="A75" s="13">
         <v>74</v>
       </c>
@@ -6521,15 +6794,16 @@
       <c r="L75" s="16" t="s">
         <v>1020</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" ht="48.9">
+      <c r="M75" s="22" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="48.9">
       <c r="A76" s="13">
         <v>75</v>
       </c>
       <c r="B76" s="13"/>
-      <c r="C76" s="13" t="s">
-        <v>388</v>
-      </c>
+      <c r="C76" s="13"/>
       <c r="D76" s="13"/>
       <c r="E76" s="13" t="s">
         <v>394</v>
@@ -6555,15 +6829,14 @@
       <c r="L76" s="16" t="s">
         <v>1020</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" ht="48.9">
+      <c r="N76" s="19"/>
+    </row>
+    <row r="77" spans="1:14" ht="48.9">
       <c r="A77" s="13">
         <v>76</v>
       </c>
       <c r="B77" s="13"/>
-      <c r="C77" s="13" t="s">
-        <v>388</v>
-      </c>
+      <c r="C77" s="13"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13" t="s">
         <v>399</v>
@@ -6589,8 +6862,9 @@
       <c r="L77" s="16" t="s">
         <v>1020</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" ht="32.6">
+      <c r="N77" s="20"/>
+    </row>
+    <row r="78" spans="1:14" ht="409.6">
       <c r="A78" s="13">
         <v>77</v>
       </c>
@@ -6623,15 +6897,16 @@
       <c r="L78" s="16" t="s">
         <v>1020</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" ht="32.6">
+      <c r="M78" s="22" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="32.6">
       <c r="A79" s="13">
         <v>78</v>
       </c>
       <c r="B79" s="13"/>
-      <c r="C79" s="13" t="s">
-        <v>404</v>
-      </c>
+      <c r="C79" s="13"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13" t="s">
         <v>410</v>
@@ -6657,15 +6932,14 @@
       <c r="L79" s="16" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" ht="16.3">
+      <c r="N79" s="19"/>
+    </row>
+    <row r="80" spans="1:14" ht="16.3">
       <c r="A80" s="13">
         <v>79</v>
       </c>
       <c r="B80" s="13"/>
-      <c r="C80" s="13" t="s">
-        <v>404</v>
-      </c>
+      <c r="C80" s="13"/>
       <c r="D80" s="13"/>
       <c r="E80" s="13" t="s">
         <v>415</v>
@@ -6691,8 +6965,9 @@
       <c r="L80" s="16" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" ht="16.3">
+      <c r="N80" s="20"/>
+    </row>
+    <row r="81" spans="1:14" ht="409.6">
       <c r="A81" s="13">
         <v>80</v>
       </c>
@@ -6725,15 +7000,16 @@
       <c r="L81" s="16" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" ht="32.6">
+      <c r="M81" s="22" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="32.6">
       <c r="A82" s="13">
         <v>81</v>
       </c>
       <c r="B82" s="13"/>
-      <c r="C82" s="13" t="s">
-        <v>420</v>
-      </c>
+      <c r="C82" s="13"/>
       <c r="D82" s="13"/>
       <c r="E82" s="13" t="s">
         <v>426</v>
@@ -6759,15 +7035,14 @@
       <c r="L82" s="16" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" ht="48.9">
+      <c r="N82" s="19"/>
+    </row>
+    <row r="83" spans="1:14" ht="48.9">
       <c r="A83" s="13">
         <v>82</v>
       </c>
       <c r="B83" s="13"/>
-      <c r="C83" s="13" t="s">
-        <v>420</v>
-      </c>
+      <c r="C83" s="13"/>
       <c r="D83" s="13"/>
       <c r="E83" s="13" t="s">
         <v>431</v>
@@ -6793,8 +7068,9 @@
       <c r="L83" s="16" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" ht="32.6">
+      <c r="N83" s="20"/>
+    </row>
+    <row r="84" spans="1:14" ht="409.6">
       <c r="A84" s="13">
         <v>83</v>
       </c>
@@ -6827,15 +7103,16 @@
       <c r="L84" s="16" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" ht="48.9">
+      <c r="M84" s="22" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="48.9">
       <c r="A85" s="13">
         <v>84</v>
       </c>
       <c r="B85" s="13"/>
-      <c r="C85" s="13" t="s">
-        <v>436</v>
-      </c>
+      <c r="C85" s="13"/>
       <c r="D85" s="13"/>
       <c r="E85" s="13" t="s">
         <v>442</v>
@@ -6861,15 +7138,14 @@
       <c r="L85" s="16" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" ht="32.6">
+      <c r="N85" s="19"/>
+    </row>
+    <row r="86" spans="1:14" ht="32.6">
       <c r="A86" s="13">
         <v>85</v>
       </c>
       <c r="B86" s="13"/>
-      <c r="C86" s="13" t="s">
-        <v>436</v>
-      </c>
+      <c r="C86" s="13"/>
       <c r="D86" s="13"/>
       <c r="E86" s="13" t="s">
         <v>447</v>
@@ -6895,8 +7171,9 @@
       <c r="L86" s="16" t="s">
         <v>1032</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" ht="32.6">
+      <c r="N86" s="20"/>
+    </row>
+    <row r="87" spans="1:14" ht="409.6">
       <c r="A87" s="13">
         <v>86</v>
       </c>
@@ -6929,15 +7206,16 @@
       <c r="L87" s="16" t="s">
         <v>1032</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" ht="32.6">
+      <c r="M87" s="22" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="32.6">
       <c r="A88" s="13">
         <v>87</v>
       </c>
       <c r="B88" s="13"/>
-      <c r="C88" s="13" t="s">
-        <v>452</v>
-      </c>
+      <c r="C88" s="13"/>
       <c r="D88" s="13"/>
       <c r="E88" s="13" t="s">
         <v>458</v>
@@ -6963,15 +7241,14 @@
       <c r="L88" s="16" t="s">
         <v>1032</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" ht="32.6">
+      <c r="N88" s="19"/>
+    </row>
+    <row r="89" spans="1:14" ht="32.6">
       <c r="A89" s="13">
         <v>88</v>
       </c>
       <c r="B89" s="13"/>
-      <c r="C89" s="13" t="s">
-        <v>452</v>
-      </c>
+      <c r="C89" s="13"/>
       <c r="D89" s="13"/>
       <c r="E89" s="13" t="s">
         <v>463</v>
@@ -6997,8 +7274,9 @@
       <c r="L89" s="16" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" ht="32.6">
+      <c r="N89" s="20"/>
+    </row>
+    <row r="90" spans="1:14" ht="409.6">
       <c r="A90" s="13">
         <v>89</v>
       </c>
@@ -7031,15 +7309,16 @@
       <c r="L90" s="16" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" ht="48.9">
+      <c r="M90" s="22" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="65.25">
       <c r="A91" s="13">
         <v>90</v>
       </c>
       <c r="B91" s="13"/>
-      <c r="C91" s="13" t="s">
-        <v>468</v>
-      </c>
+      <c r="C91" s="13"/>
       <c r="D91" s="13"/>
       <c r="E91" s="13" t="s">
         <v>474</v>
@@ -7065,15 +7344,14 @@
       <c r="L91" s="16" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" ht="32.6">
+      <c r="N91" s="19"/>
+    </row>
+    <row r="92" spans="1:14" ht="32.6">
       <c r="A92" s="13">
         <v>91</v>
       </c>
       <c r="B92" s="13"/>
-      <c r="C92" s="13" t="s">
-        <v>468</v>
-      </c>
+      <c r="C92" s="13"/>
       <c r="D92" s="13"/>
       <c r="E92" s="13" t="s">
         <v>447</v>
@@ -7099,8 +7377,9 @@
       <c r="L92" s="16" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" ht="32.6">
+      <c r="N92" s="20"/>
+    </row>
+    <row r="93" spans="1:14" ht="409.6">
       <c r="A93" s="13">
         <v>92</v>
       </c>
@@ -7133,15 +7412,16 @@
       <c r="L93" s="16" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" ht="32.6">
+      <c r="M93" s="22" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="48.9">
       <c r="A94" s="13">
         <v>93</v>
       </c>
       <c r="B94" s="13"/>
-      <c r="C94" s="13" t="s">
-        <v>483</v>
-      </c>
+      <c r="C94" s="13"/>
       <c r="D94" s="13"/>
       <c r="E94" s="13" t="s">
         <v>489</v>
@@ -7167,15 +7447,14 @@
       <c r="L94" s="16" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" ht="65.25">
+      <c r="N94" s="19"/>
+    </row>
+    <row r="95" spans="1:14" ht="65.25">
       <c r="A95" s="13">
         <v>94</v>
       </c>
       <c r="B95" s="13"/>
-      <c r="C95" s="13" t="s">
-        <v>483</v>
-      </c>
+      <c r="C95" s="13"/>
       <c r="D95" s="13"/>
       <c r="E95" s="13" t="s">
         <v>494</v>
@@ -7201,8 +7480,9 @@
       <c r="L95" s="16" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" ht="48.9">
+      <c r="N95" s="20"/>
+    </row>
+    <row r="96" spans="1:14" ht="409.6">
       <c r="A96" s="13">
         <v>95</v>
       </c>
@@ -7237,15 +7517,16 @@
       <c r="L96" s="16" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" ht="48.9">
+      <c r="M96" s="22" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="48.9">
       <c r="A97" s="13">
         <v>96</v>
       </c>
       <c r="B97" s="13"/>
-      <c r="C97" s="13" t="s">
-        <v>499</v>
-      </c>
+      <c r="C97" s="13"/>
       <c r="D97" s="13"/>
       <c r="E97" s="13" t="s">
         <v>505</v>
@@ -7271,15 +7552,14 @@
       <c r="L97" s="16" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" ht="32.6">
+      <c r="N97" s="19"/>
+    </row>
+    <row r="98" spans="1:14" ht="32.6">
       <c r="A98" s="13">
         <v>97</v>
       </c>
       <c r="B98" s="13"/>
-      <c r="C98" s="13" t="s">
-        <v>499</v>
-      </c>
+      <c r="C98" s="13"/>
       <c r="D98" s="13"/>
       <c r="E98" s="13" t="s">
         <v>510</v>
@@ -7305,8 +7585,9 @@
       <c r="L98" s="16" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" ht="32.6">
+      <c r="N98" s="20"/>
+    </row>
+    <row r="99" spans="1:14" ht="409.6">
       <c r="A99" s="13">
         <v>98</v>
       </c>
@@ -7341,15 +7622,16 @@
       <c r="L99" s="16" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" ht="48.9">
+      <c r="M99" s="22" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="48.9">
       <c r="A100" s="13">
         <v>99</v>
       </c>
       <c r="B100" s="13"/>
-      <c r="C100" s="13" t="s">
-        <v>515</v>
-      </c>
+      <c r="C100" s="13"/>
       <c r="D100" s="13"/>
       <c r="E100" s="13" t="s">
         <v>521</v>
@@ -7375,15 +7657,14 @@
       <c r="L100" s="16" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" ht="48.9">
+      <c r="N100" s="19"/>
+    </row>
+    <row r="101" spans="1:14" ht="48.9">
       <c r="A101" s="13">
         <v>100</v>
       </c>
       <c r="B101" s="13"/>
-      <c r="C101" s="13" t="s">
-        <v>515</v>
-      </c>
+      <c r="C101" s="13"/>
       <c r="D101" s="13"/>
       <c r="E101" s="13" t="s">
         <v>431</v>
@@ -7409,8 +7690,9 @@
       <c r="L101" s="16" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" ht="48.9">
+      <c r="N101" s="20"/>
+    </row>
+    <row r="102" spans="1:14" ht="48.9">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -7442,7 +7724,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="48.9">
+    <row r="103" spans="1:14" ht="48.9">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -7473,8 +7755,9 @@
       <c r="L103" s="16" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" ht="65.25">
+      <c r="N103" s="19"/>
+    </row>
+    <row r="104" spans="1:14" ht="65.25">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -7506,7 +7789,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="48.9">
+    <row r="105" spans="1:14" ht="48.9">
       <c r="A105" s="4">
         <v>104</v>
       </c>
@@ -7538,7 +7821,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="65.25">
+    <row r="106" spans="1:14" ht="65.25">
       <c r="A106" s="4">
         <v>105</v>
       </c>
@@ -7570,7 +7853,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="48.9">
+    <row r="107" spans="1:14" ht="48.9">
       <c r="A107" s="4">
         <v>106</v>
       </c>
@@ -7602,7 +7885,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="65.25">
+    <row r="108" spans="1:14" ht="65.25">
       <c r="A108" s="4">
         <v>107</v>
       </c>
@@ -7634,7 +7917,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="48.9">
+    <row r="109" spans="1:14" ht="48.9">
       <c r="A109" s="4">
         <v>108</v>
       </c>
@@ -7666,7 +7949,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="65.25">
+    <row r="110" spans="1:14" ht="65.25">
       <c r="A110" s="4">
         <v>109</v>
       </c>
@@ -7698,7 +7981,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="48.9">
+    <row r="111" spans="1:14" ht="48.9">
       <c r="A111" s="4">
         <v>110</v>
       </c>
@@ -7730,7 +8013,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="48.9">
+    <row r="112" spans="1:14" ht="48.9">
       <c r="A112" s="4">
         <v>111</v>
       </c>
@@ -10821,7 +11104,7 @@
       <c r="J218" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>